--- a/White box Testing_new16062021.xlsx
+++ b/White box Testing_new16062021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNIVERSITY\Nam_3\Nam3_2\SE113\ScriptCode-Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0785D5-E8F9-4356-8955-36DB6B217DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDF354B-CEE6-4FE9-9C1A-4B624B872939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="743" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,7 +147,7 @@
     <author>ANa</author>
   </authors>
   <commentList>
-    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{C803EAD4-86A3-4A07-AC9E-E861AFDA5DC1}">
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{DC0E1A46-D663-44A1-A03D-2D6283A4655C}">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="1" shapeId="0" xr:uid="{3A729530-CC4F-470E-950B-536FD2744A5A}">
+    <comment ref="C10" authorId="1" shapeId="0" xr:uid="{37352DFD-35BF-48F3-95A9-2E4E16198749}">
       <text>
         <r>
           <rPr>
@@ -449,7 +449,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="293">
   <si>
     <t>Guideline to make and understand Unit Test Case</t>
   </si>
@@ -1401,12 +1401,6 @@
     <t>sMmWHLn69RnK2tyBXbaRvcn9EpcaPDWpZGToi2CMET6ANS03YhcBjdVjNLyMKWDA867YosFS6erHn7zks6I3zXTJ8FyzvwnByq9VPFvB5veAt0PzQhrDHcXH7900wTbNaiV43ly5JSEAB7SwIOyHZ1</t>
   </si>
   <si>
-    <t>dDDq0YmzkOsZzqcqwYdByL2N4N5bEKz1daZ4F2vXO9aTcNnSxHsi7ksyORj1iko8zJ5AP9tauz23VSQi8AzVJQlwIpPwk32u6hTInlux1W4ANW5o9E5TtPTEYP2KYUdUlKXbXtffyWoY4ayB7q9FjH3</t>
-  </si>
-  <si>
-    <t>bbbbbbbb</t>
-  </si>
-  <si>
     <t>bbbbbbbbb</t>
   </si>
   <si>
@@ -1443,13 +1437,28 @@
     <t>Register failed!</t>
   </si>
   <si>
-    <t>Please fill out this field</t>
-  </si>
-  <si>
-    <t>Please include an '@' in the email address.'__' is missing an  '@'</t>
-  </si>
-  <si>
-    <t>Bbbbbbbb</t>
+    <t>Kết nối được với Server</t>
+  </si>
+  <si>
+    <t>bycryptm</t>
+  </si>
+  <si>
+    <t>27/5/2021</t>
+  </si>
+  <si>
+    <t>bbbbbbb</t>
+  </si>
+  <si>
+    <t>DFID005</t>
+  </si>
+  <si>
+    <t>Please include an '@' in the email address. 'abc' is missing an '@'.</t>
+  </si>
+  <si>
+    <t>Please fill out this field.</t>
+  </si>
+  <si>
+    <t>dDDq0YmzkOsZzqcqwYdByL2N4N5bEKz1daZ4F2vXO9aTcNnSxHsi7ksyORj1iko8zJ5AP9tauz23VSQi8AzVJQlwIpPwk32u6hTInlux1W4ANW5o9E5TtPTEYP2KYUdUlKXbXtffyWoY4ayB7q9FjH3323</t>
   </si>
 </sst>
 </file>
@@ -1819,12 +1828,13 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="35">
@@ -2011,7 +2021,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="129">
+  <borders count="130">
     <border>
       <left/>
       <right/>
@@ -3625,6 +3635,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3679,7 +3702,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="531">
+  <cellXfs count="530">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4453,14 +4476,8 @@
     <xf numFmtId="0" fontId="35" fillId="32" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="35" fillId="32" borderId="33" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="32" borderId="38" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="33" borderId="44" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="34" borderId="59" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="180"/>
@@ -4553,9 +4570,6 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="29" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="35" fillId="0" borderId="29" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="34" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="255"/>
     </xf>
@@ -4572,505 +4586,6 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="24" borderId="46" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="43" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="43" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="43" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="43" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="30" fillId="24" borderId="43" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="30" fillId="24" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="48" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="48" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="30" fillId="24" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="30" fillId="24" borderId="48" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="30" fillId="24" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="43" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="43" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="43" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="48" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="24" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="24" borderId="48" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="24" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="24" borderId="67" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="68" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="69" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="44" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="48" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="31" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="65" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="48" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="70" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="71" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="33" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="38" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="52" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="72" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="73" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="74" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="74" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="75" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="76" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="46" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="77" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="78" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="65" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="66" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="79" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="68" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="24" borderId="67" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="68" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="80" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="81" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="82" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="33" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="83" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="84" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="85" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="86" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="48" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="87" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="88" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="89" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="106" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="24" borderId="47" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="24" borderId="102" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="104" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="39" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="40" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="41" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="104" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="105" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="38" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="52" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="72" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="74" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="74" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="75" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="123" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="48" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="46" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="124" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="83" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="33" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="33" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="86" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="29" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="24" borderId="90" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="24" borderId="121" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="65" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="122" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="44" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="65" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="122" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="24" borderId="91" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="24" borderId="92" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="11" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="73" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="30" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="31" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="48" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="48" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="70" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="76" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="66" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="85" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="77" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="84" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="78" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="93" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="56" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="94" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="29" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="30" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="31" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="29" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="30" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="31" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="34" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="35" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="36" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="71" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="24" borderId="67" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="68" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="69" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="95" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="93" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="56" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="94" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="29" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="30" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="31" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="29" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="30" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="31" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="34" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="35" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="36" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="45" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="80" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="24" borderId="68" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="24" borderId="80" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="67" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="24" borderId="68" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="24" borderId="69" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="100" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="101" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="98" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="97" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="99" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="96" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="33" borderId="46" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5102,11 +4617,516 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="52" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="43" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="43" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="43" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="43" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="30" fillId="24" borderId="43" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="30" fillId="24" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="45" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="24" borderId="48" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="24" borderId="48" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="30" fillId="24" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="30" fillId="24" borderId="48" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="30" fillId="24" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="24" borderId="43" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="24" borderId="43" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="43" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="48" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="24" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="24" borderId="48" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="24" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="33" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="38" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="79" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="68" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="24" borderId="67" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="68" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="80" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="81" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="82" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="83" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="77" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="84" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="85" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="86" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="74" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="48" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="52" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="33" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="72" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="44" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="73" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="74" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="75" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="76" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="48" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="46" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="78" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="65" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="66" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="24" borderId="67" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="68" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="69" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="31" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="65" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="48" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="70" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="71" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="96" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="97" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="129" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="89" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="106" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="24" borderId="47" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="24" borderId="102" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="104" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="39" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="40" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="41" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="104" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="105" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="52" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="87" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="88" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="24" borderId="90" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="24" borderId="121" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="29" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="65" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="122" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="44" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="65" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="122" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="33" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="33" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="83" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="86" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="74" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="38" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="52" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="72" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="74" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="75" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="123" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="48" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="46" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="124" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="93" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="56" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="94" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="29" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="30" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="31" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="29" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="30" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="31" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="34" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="35" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="36" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="71" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="66" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="85" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="77" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="84" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="78" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="11" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="48" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="30" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="31" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="48" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="70" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="76" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="24" borderId="91" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="24" borderId="92" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="73" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="24" borderId="67" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="68" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="69" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="80" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="24" borderId="68" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="24" borderId="80" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="67" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="24" borderId="68" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="24" borderId="69" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="100" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="101" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="98" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="99" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="45" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="95" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="93" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="56" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="94" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="29" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="30" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="31" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="29" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="30" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="31" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="34" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="35" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="36" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -5371,10 +5391,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>9</c:v>
@@ -5912,10 +5932,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>9</c:v>
@@ -6222,10 +6242,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>56</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -6767,10 +6787,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>56</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -7048,7 +7068,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Guidleline"/>
       <sheetName val="Cover"/>
       <sheetName val="FunctionList"/>
       <sheetName val="Test Report"/>
@@ -7062,9 +7081,8 @@
       <sheetName val="Function8"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
         <row r="6">
           <cell r="E6">
             <v>100</v>
@@ -7079,15 +7097,15 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7719,59 +7737,59 @@
       <c r="B1" s="84"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="402" t="s">
+      <c r="A2" s="387" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="403"/>
-      <c r="C2" s="404" t="s">
+      <c r="B2" s="388"/>
+      <c r="C2" s="389" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="405"/>
-      <c r="E2" s="406"/>
-      <c r="F2" s="407" t="s">
+      <c r="D2" s="390"/>
+      <c r="E2" s="391"/>
+      <c r="F2" s="392" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="408"/>
-      <c r="H2" s="408"/>
-      <c r="I2" s="408"/>
-      <c r="J2" s="408"/>
-      <c r="K2" s="408"/>
-      <c r="L2" s="408"/>
-      <c r="M2" s="371" t="s">
+      <c r="G2" s="393"/>
+      <c r="H2" s="393"/>
+      <c r="I2" s="393"/>
+      <c r="J2" s="393"/>
+      <c r="K2" s="393"/>
+      <c r="L2" s="393"/>
+      <c r="M2" s="418" t="s">
         <v>93</v>
       </c>
-      <c r="N2" s="372"/>
-      <c r="O2" s="372"/>
-      <c r="P2" s="372"/>
-      <c r="Q2" s="372"/>
-      <c r="R2" s="372"/>
-      <c r="S2" s="372"/>
-      <c r="T2" s="372"/>
-      <c r="U2" s="373"/>
+      <c r="N2" s="419"/>
+      <c r="O2" s="419"/>
+      <c r="P2" s="419"/>
+      <c r="Q2" s="419"/>
+      <c r="R2" s="419"/>
+      <c r="S2" s="419"/>
+      <c r="T2" s="419"/>
+      <c r="U2" s="420"/>
       <c r="W2" s="87"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="393" t="s">
+      <c r="A3" s="399" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="394"/>
-      <c r="C3" s="388" t="s">
+      <c r="B3" s="400"/>
+      <c r="C3" s="405" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="374"/>
-      <c r="E3" s="389"/>
-      <c r="F3" s="378" t="s">
+      <c r="D3" s="406"/>
+      <c r="E3" s="407"/>
+      <c r="F3" s="423" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="379"/>
-      <c r="H3" s="379"/>
-      <c r="I3" s="379"/>
-      <c r="J3" s="379"/>
-      <c r="K3" s="379"/>
-      <c r="L3" s="380"/>
-      <c r="M3" s="374"/>
-      <c r="N3" s="374"/>
-      <c r="O3" s="374"/>
+      <c r="G3" s="424"/>
+      <c r="H3" s="424"/>
+      <c r="I3" s="424"/>
+      <c r="J3" s="424"/>
+      <c r="K3" s="424"/>
+      <c r="L3" s="425"/>
+      <c r="M3" s="406"/>
+      <c r="N3" s="406"/>
+      <c r="O3" s="406"/>
       <c r="P3" s="188"/>
       <c r="Q3" s="188"/>
       <c r="R3" s="188"/>
@@ -7780,121 +7798,121 @@
       <c r="U3" s="189"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="393" t="s">
+      <c r="A4" s="399" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="394"/>
-      <c r="C4" s="414">
+      <c r="B4" s="400"/>
+      <c r="C4" s="401">
         <v>100</v>
       </c>
-      <c r="D4" s="415"/>
+      <c r="D4" s="402"/>
       <c r="E4" s="198"/>
-      <c r="F4" s="378" t="s">
+      <c r="F4" s="423" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="379"/>
-      <c r="H4" s="379"/>
-      <c r="I4" s="379"/>
-      <c r="J4" s="379"/>
-      <c r="K4" s="379"/>
-      <c r="L4" s="380"/>
-      <c r="M4" s="381">
+      <c r="G4" s="424"/>
+      <c r="H4" s="424"/>
+      <c r="I4" s="424"/>
+      <c r="J4" s="424"/>
+      <c r="K4" s="424"/>
+      <c r="L4" s="425"/>
+      <c r="M4" s="426">
         <f xml:space="preserve"> IF(FunctionList!E6&lt;&gt;"N/A",SUM(C4*FunctionList!E6/1000,- P7),"N/A")</f>
         <v>4</v>
       </c>
-      <c r="N4" s="382"/>
-      <c r="O4" s="382"/>
-      <c r="P4" s="382"/>
-      <c r="Q4" s="382"/>
-      <c r="R4" s="382"/>
-      <c r="S4" s="382"/>
-      <c r="T4" s="382"/>
-      <c r="U4" s="383"/>
+      <c r="N4" s="427"/>
+      <c r="O4" s="427"/>
+      <c r="P4" s="427"/>
+      <c r="Q4" s="427"/>
+      <c r="R4" s="427"/>
+      <c r="S4" s="427"/>
+      <c r="T4" s="427"/>
+      <c r="U4" s="428"/>
       <c r="W4" s="87"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="393" t="s">
+      <c r="A5" s="399" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="394"/>
-      <c r="C5" s="395" t="s">
+      <c r="B5" s="400"/>
+      <c r="C5" s="411" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="395"/>
-      <c r="E5" s="395"/>
-      <c r="F5" s="396"/>
-      <c r="G5" s="396"/>
-      <c r="H5" s="396"/>
-      <c r="I5" s="396"/>
-      <c r="J5" s="396"/>
-      <c r="K5" s="396"/>
-      <c r="L5" s="396"/>
-      <c r="M5" s="395"/>
-      <c r="N5" s="395"/>
-      <c r="O5" s="395"/>
-      <c r="P5" s="395"/>
-      <c r="Q5" s="395"/>
-      <c r="R5" s="395"/>
-      <c r="S5" s="395"/>
-      <c r="T5" s="395"/>
-      <c r="U5" s="395"/>
+      <c r="D5" s="411"/>
+      <c r="E5" s="411"/>
+      <c r="F5" s="412"/>
+      <c r="G5" s="412"/>
+      <c r="H5" s="412"/>
+      <c r="I5" s="412"/>
+      <c r="J5" s="412"/>
+      <c r="K5" s="412"/>
+      <c r="L5" s="412"/>
+      <c r="M5" s="411"/>
+      <c r="N5" s="411"/>
+      <c r="O5" s="411"/>
+      <c r="P5" s="411"/>
+      <c r="Q5" s="411"/>
+      <c r="R5" s="411"/>
+      <c r="S5" s="411"/>
+      <c r="T5" s="411"/>
+      <c r="U5" s="411"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="391" t="s">
+      <c r="A6" s="409" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="392"/>
-      <c r="C6" s="375" t="s">
+      <c r="B6" s="410"/>
+      <c r="C6" s="421" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="376"/>
-      <c r="E6" s="377"/>
-      <c r="F6" s="375" t="s">
+      <c r="D6" s="413"/>
+      <c r="E6" s="422"/>
+      <c r="F6" s="421" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="376"/>
-      <c r="H6" s="376"/>
-      <c r="I6" s="376"/>
-      <c r="J6" s="376"/>
-      <c r="K6" s="376"/>
-      <c r="L6" s="384"/>
-      <c r="M6" s="376" t="s">
+      <c r="G6" s="413"/>
+      <c r="H6" s="413"/>
+      <c r="I6" s="413"/>
+      <c r="J6" s="413"/>
+      <c r="K6" s="413"/>
+      <c r="L6" s="429"/>
+      <c r="M6" s="413" t="s">
         <v>127</v>
       </c>
-      <c r="N6" s="376"/>
-      <c r="O6" s="376"/>
-      <c r="P6" s="400" t="s">
+      <c r="N6" s="413"/>
+      <c r="O6" s="413"/>
+      <c r="P6" s="416" t="s">
         <v>111</v>
       </c>
-      <c r="Q6" s="376"/>
-      <c r="R6" s="376"/>
-      <c r="S6" s="376"/>
-      <c r="T6" s="376"/>
-      <c r="U6" s="401"/>
+      <c r="Q6" s="413"/>
+      <c r="R6" s="413"/>
+      <c r="S6" s="413"/>
+      <c r="T6" s="413"/>
+      <c r="U6" s="417"/>
       <c r="W6" s="87"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A7" s="413">
+      <c r="A7" s="398">
         <f>COUNTIF(F29:HH29,"P")</f>
         <v>6</v>
       </c>
-      <c r="B7" s="412"/>
-      <c r="C7" s="410">
+      <c r="B7" s="397"/>
+      <c r="C7" s="394">
         <f>COUNTIF(F29:HH29,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="398"/>
-      <c r="E7" s="412"/>
-      <c r="F7" s="410">
+      <c r="D7" s="395"/>
+      <c r="E7" s="397"/>
+      <c r="F7" s="394">
         <f>SUM(P7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="398"/>
-      <c r="H7" s="398"/>
-      <c r="I7" s="398"/>
-      <c r="J7" s="398"/>
-      <c r="K7" s="398"/>
-      <c r="L7" s="411"/>
+      <c r="G7" s="395"/>
+      <c r="H7" s="395"/>
+      <c r="I7" s="395"/>
+      <c r="J7" s="395"/>
+      <c r="K7" s="395"/>
+      <c r="L7" s="396"/>
       <c r="M7" s="190">
         <f>COUNTIF(E28:HH28,"N")</f>
         <v>4</v>
@@ -7907,15 +7925,15 @@
         <f>COUNTIF(E28:HH28,"B")</f>
         <v>1</v>
       </c>
-      <c r="P7" s="397">
+      <c r="P7" s="414">
         <f>COUNTA(E9:HK9)</f>
         <v>6</v>
       </c>
-      <c r="Q7" s="398"/>
-      <c r="R7" s="398"/>
-      <c r="S7" s="398"/>
-      <c r="T7" s="398"/>
-      <c r="U7" s="399"/>
+      <c r="Q7" s="395"/>
+      <c r="R7" s="395"/>
+      <c r="S7" s="395"/>
+      <c r="T7" s="395"/>
+      <c r="U7" s="415"/>
       <c r="V7" s="88"/>
     </row>
     <row r="9" spans="1:23" ht="46.5" customHeight="1">
@@ -8262,12 +8280,12 @@
       <c r="A28" s="210" t="s">
         <v>163</v>
       </c>
-      <c r="B28" s="387" t="s">
+      <c r="B28" s="445" t="s">
         <v>164</v>
       </c>
-      <c r="C28" s="387"/>
-      <c r="D28" s="387"/>
-      <c r="E28" s="332"/>
+      <c r="C28" s="445"/>
+      <c r="D28" s="445"/>
+      <c r="E28" s="330"/>
       <c r="F28" s="204" t="s">
         <v>108</v>
       </c>
@@ -8290,11 +8308,11 @@
     </row>
     <row r="29" spans="1:12" ht="13.5" customHeight="1">
       <c r="A29" s="209"/>
-      <c r="B29" s="409" t="s">
+      <c r="B29" s="404" t="s">
         <v>165</v>
       </c>
-      <c r="C29" s="409"/>
-      <c r="D29" s="409"/>
+      <c r="C29" s="404"/>
+      <c r="D29" s="404"/>
       <c r="E29" s="119"/>
       <c r="F29" s="187" t="s">
         <v>166</v>
@@ -8367,25 +8385,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:U6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="P7:U7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="M4:U4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:U5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:L2"/>
@@ -8394,6 +8393,25 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:L3"/>
     <mergeCell ref="M3:O3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="M4:U4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:U5"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:U6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F29:K29" xr:uid="{00000000-0002-0000-0900-000000000000}">
@@ -8440,34 +8458,34 @@
       <c r="B1" s="84"/>
     </row>
     <row r="2" spans="1:28" ht="13.5" customHeight="1">
-      <c r="A2" s="402" t="s">
+      <c r="A2" s="387" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="403"/>
-      <c r="C2" s="404" t="s">
+      <c r="B2" s="388"/>
+      <c r="C2" s="389" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="405"/>
-      <c r="E2" s="406"/>
-      <c r="F2" s="407" t="s">
+      <c r="D2" s="390"/>
+      <c r="E2" s="391"/>
+      <c r="F2" s="392" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="408"/>
-      <c r="H2" s="408"/>
-      <c r="I2" s="408"/>
-      <c r="J2" s="408"/>
-      <c r="K2" s="408"/>
-      <c r="L2" s="484" t="s">
+      <c r="G2" s="393"/>
+      <c r="H2" s="393"/>
+      <c r="I2" s="393"/>
+      <c r="J2" s="393"/>
+      <c r="K2" s="393"/>
+      <c r="L2" s="503" t="s">
         <v>96</v>
       </c>
-      <c r="M2" s="485"/>
-      <c r="N2" s="485"/>
-      <c r="O2" s="485"/>
-      <c r="P2" s="485"/>
-      <c r="Q2" s="485"/>
-      <c r="R2" s="485"/>
-      <c r="S2" s="485"/>
-      <c r="T2" s="486"/>
+      <c r="M2" s="504"/>
+      <c r="N2" s="504"/>
+      <c r="O2" s="504"/>
+      <c r="P2" s="504"/>
+      <c r="Q2" s="504"/>
+      <c r="R2" s="504"/>
+      <c r="S2" s="504"/>
+      <c r="T2" s="505"/>
       <c r="U2" s="251"/>
       <c r="V2" s="251"/>
       <c r="W2" s="251"/>
@@ -8476,26 +8494,26 @@
       <c r="AA2" s="87"/>
     </row>
     <row r="3" spans="1:28" ht="13.5" customHeight="1">
-      <c r="A3" s="393" t="s">
+      <c r="A3" s="399" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="394"/>
-      <c r="C3" s="388" t="s">
+      <c r="B3" s="400"/>
+      <c r="C3" s="405" t="s">
         <v>194</v>
       </c>
-      <c r="D3" s="374"/>
-      <c r="E3" s="389"/>
-      <c r="F3" s="378" t="s">
+      <c r="D3" s="406"/>
+      <c r="E3" s="407"/>
+      <c r="F3" s="423" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="379"/>
-      <c r="H3" s="379"/>
-      <c r="I3" s="379"/>
-      <c r="J3" s="379"/>
-      <c r="K3" s="380"/>
-      <c r="L3" s="374"/>
-      <c r="M3" s="374"/>
-      <c r="N3" s="374"/>
+      <c r="G3" s="424"/>
+      <c r="H3" s="424"/>
+      <c r="I3" s="424"/>
+      <c r="J3" s="424"/>
+      <c r="K3" s="425"/>
+      <c r="L3" s="406"/>
+      <c r="M3" s="406"/>
+      <c r="N3" s="406"/>
       <c r="O3" s="188"/>
       <c r="P3" s="188"/>
       <c r="Q3" s="188"/>
@@ -8509,35 +8527,35 @@
       <c r="Y3" s="252"/>
     </row>
     <row r="4" spans="1:28" ht="13.5" customHeight="1">
-      <c r="A4" s="393" t="s">
+      <c r="A4" s="399" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="394"/>
-      <c r="C4" s="414">
+      <c r="B4" s="400"/>
+      <c r="C4" s="401">
         <v>100</v>
       </c>
-      <c r="D4" s="415"/>
+      <c r="D4" s="402"/>
       <c r="E4" s="198"/>
-      <c r="F4" s="378" t="s">
+      <c r="F4" s="423" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="379"/>
-      <c r="H4" s="379"/>
-      <c r="I4" s="379"/>
-      <c r="J4" s="379"/>
-      <c r="K4" s="380"/>
-      <c r="L4" s="381">
+      <c r="G4" s="424"/>
+      <c r="H4" s="424"/>
+      <c r="I4" s="424"/>
+      <c r="J4" s="424"/>
+      <c r="K4" s="425"/>
+      <c r="L4" s="426">
         <f xml:space="preserve"> IF(FunctionList!E6&lt;&gt;"N/A",SUM(C4*FunctionList!E6/1000,- O7),"N/A")</f>
         <v>-10</v>
       </c>
-      <c r="M4" s="382"/>
-      <c r="N4" s="382"/>
-      <c r="O4" s="382"/>
-      <c r="P4" s="382"/>
-      <c r="Q4" s="382"/>
-      <c r="R4" s="382"/>
-      <c r="S4" s="382"/>
-      <c r="T4" s="383"/>
+      <c r="M4" s="427"/>
+      <c r="N4" s="427"/>
+      <c r="O4" s="427"/>
+      <c r="P4" s="427"/>
+      <c r="Q4" s="427"/>
+      <c r="R4" s="427"/>
+      <c r="S4" s="427"/>
+      <c r="T4" s="428"/>
       <c r="U4" s="253"/>
       <c r="V4" s="253"/>
       <c r="W4" s="253"/>
@@ -8546,30 +8564,30 @@
       <c r="AA4" s="87"/>
     </row>
     <row r="5" spans="1:28" ht="13.5" customHeight="1">
-      <c r="A5" s="393" t="s">
+      <c r="A5" s="399" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="394"/>
-      <c r="C5" s="395" t="s">
+      <c r="B5" s="400"/>
+      <c r="C5" s="411" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="395"/>
-      <c r="E5" s="395"/>
-      <c r="F5" s="396"/>
-      <c r="G5" s="396"/>
-      <c r="H5" s="396"/>
-      <c r="I5" s="396"/>
-      <c r="J5" s="396"/>
-      <c r="K5" s="396"/>
-      <c r="L5" s="395"/>
-      <c r="M5" s="395"/>
-      <c r="N5" s="395"/>
-      <c r="O5" s="395"/>
-      <c r="P5" s="395"/>
-      <c r="Q5" s="395"/>
-      <c r="R5" s="395"/>
-      <c r="S5" s="395"/>
-      <c r="T5" s="395"/>
+      <c r="D5" s="411"/>
+      <c r="E5" s="411"/>
+      <c r="F5" s="412"/>
+      <c r="G5" s="412"/>
+      <c r="H5" s="412"/>
+      <c r="I5" s="412"/>
+      <c r="J5" s="412"/>
+      <c r="K5" s="412"/>
+      <c r="L5" s="411"/>
+      <c r="M5" s="411"/>
+      <c r="N5" s="411"/>
+      <c r="O5" s="411"/>
+      <c r="P5" s="411"/>
+      <c r="Q5" s="411"/>
+      <c r="R5" s="411"/>
+      <c r="S5" s="411"/>
+      <c r="T5" s="411"/>
       <c r="U5" s="254"/>
       <c r="V5" s="254"/>
       <c r="W5" s="254"/>
@@ -8577,36 +8595,36 @@
       <c r="Y5" s="254"/>
     </row>
     <row r="6" spans="1:28" ht="13.5" customHeight="1">
-      <c r="A6" s="391" t="s">
+      <c r="A6" s="409" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="392"/>
-      <c r="C6" s="375" t="s">
+      <c r="B6" s="410"/>
+      <c r="C6" s="421" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="376"/>
-      <c r="E6" s="377"/>
-      <c r="F6" s="375" t="s">
+      <c r="D6" s="413"/>
+      <c r="E6" s="422"/>
+      <c r="F6" s="421" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="376"/>
-      <c r="H6" s="376"/>
-      <c r="I6" s="376"/>
-      <c r="J6" s="376"/>
-      <c r="K6" s="384"/>
-      <c r="L6" s="376" t="s">
+      <c r="G6" s="413"/>
+      <c r="H6" s="413"/>
+      <c r="I6" s="413"/>
+      <c r="J6" s="413"/>
+      <c r="K6" s="429"/>
+      <c r="L6" s="413" t="s">
         <v>127</v>
       </c>
-      <c r="M6" s="376"/>
-      <c r="N6" s="376"/>
-      <c r="O6" s="400" t="s">
+      <c r="M6" s="413"/>
+      <c r="N6" s="413"/>
+      <c r="O6" s="416" t="s">
         <v>111</v>
       </c>
-      <c r="P6" s="376"/>
-      <c r="Q6" s="376"/>
-      <c r="R6" s="376"/>
-      <c r="S6" s="376"/>
-      <c r="T6" s="401"/>
+      <c r="P6" s="413"/>
+      <c r="Q6" s="413"/>
+      <c r="R6" s="413"/>
+      <c r="S6" s="413"/>
+      <c r="T6" s="417"/>
       <c r="U6" s="255"/>
       <c r="V6" s="255"/>
       <c r="W6" s="255"/>
@@ -8615,26 +8633,26 @@
       <c r="AA6" s="87"/>
     </row>
     <row r="7" spans="1:28" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="413">
+      <c r="A7" s="398">
         <f>COUNTIF(F36:HV36,"P")</f>
         <v>20</v>
       </c>
-      <c r="B7" s="412"/>
-      <c r="C7" s="410">
+      <c r="B7" s="397"/>
+      <c r="C7" s="394">
         <f>COUNTIF(F36:HV36,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="398"/>
-      <c r="E7" s="412"/>
-      <c r="F7" s="410">
+      <c r="D7" s="395"/>
+      <c r="E7" s="397"/>
+      <c r="F7" s="394">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="398"/>
-      <c r="H7" s="398"/>
-      <c r="I7" s="398"/>
-      <c r="J7" s="398"/>
-      <c r="K7" s="411"/>
+      <c r="G7" s="395"/>
+      <c r="H7" s="395"/>
+      <c r="I7" s="395"/>
+      <c r="J7" s="395"/>
+      <c r="K7" s="396"/>
       <c r="L7" s="190">
         <f>COUNTIF(E35:HV35,"N")</f>
         <v>20</v>
@@ -8647,15 +8665,15 @@
         <f>COUNTIF(E35:HV35,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="397">
+      <c r="O7" s="414">
         <f>COUNTA(E9:HY9)</f>
         <v>20</v>
       </c>
-      <c r="P7" s="398"/>
-      <c r="Q7" s="398"/>
-      <c r="R7" s="398"/>
-      <c r="S7" s="398"/>
-      <c r="T7" s="399"/>
+      <c r="P7" s="395"/>
+      <c r="Q7" s="395"/>
+      <c r="R7" s="395"/>
+      <c r="S7" s="395"/>
+      <c r="T7" s="415"/>
       <c r="U7" s="256"/>
       <c r="V7" s="256"/>
       <c r="W7" s="256"/>
@@ -8664,72 +8682,72 @@
       <c r="Z7" s="92"/>
     </row>
     <row r="8" spans="1:28" ht="10.5" thickBot="1">
-      <c r="T8" s="319"/>
+      <c r="T8" s="317"/>
     </row>
     <row r="9" spans="1:28" ht="46.5" customHeight="1" thickTop="1">
-      <c r="A9" s="321"/>
-      <c r="B9" s="322"/>
-      <c r="C9" s="323"/>
-      <c r="D9" s="324"/>
-      <c r="E9" s="323"/>
-      <c r="F9" s="320" t="s">
+      <c r="A9" s="319"/>
+      <c r="B9" s="320"/>
+      <c r="C9" s="321"/>
+      <c r="D9" s="322"/>
+      <c r="E9" s="321"/>
+      <c r="F9" s="318" t="s">
         <v>128</v>
       </c>
-      <c r="G9" s="320" t="s">
+      <c r="G9" s="318" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="320" t="s">
+      <c r="H9" s="318" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="320" t="s">
+      <c r="I9" s="318" t="s">
         <v>131</v>
       </c>
-      <c r="J9" s="320" t="s">
+      <c r="J9" s="318" t="s">
         <v>132</v>
       </c>
-      <c r="K9" s="320" t="s">
+      <c r="K9" s="318" t="s">
         <v>133</v>
       </c>
-      <c r="L9" s="320" t="s">
+      <c r="L9" s="318" t="s">
         <v>134</v>
       </c>
-      <c r="M9" s="320" t="s">
+      <c r="M9" s="318" t="s">
         <v>135</v>
       </c>
-      <c r="N9" s="320" t="s">
+      <c r="N9" s="318" t="s">
         <v>136</v>
       </c>
-      <c r="O9" s="320" t="s">
+      <c r="O9" s="318" t="s">
         <v>137</v>
       </c>
-      <c r="P9" s="320" t="s">
+      <c r="P9" s="318" t="s">
         <v>138</v>
       </c>
-      <c r="Q9" s="320" t="s">
+      <c r="Q9" s="318" t="s">
         <v>139</v>
       </c>
-      <c r="R9" s="320" t="s">
+      <c r="R9" s="318" t="s">
         <v>140</v>
       </c>
-      <c r="S9" s="320" t="s">
+      <c r="S9" s="318" t="s">
         <v>141</v>
       </c>
-      <c r="T9" s="318" t="s">
+      <c r="T9" s="316" t="s">
         <v>142</v>
       </c>
-      <c r="U9" s="320" t="s">
+      <c r="U9" s="318" t="s">
         <v>228</v>
       </c>
-      <c r="V9" s="320" t="s">
+      <c r="V9" s="318" t="s">
         <v>229</v>
       </c>
-      <c r="W9" s="320" t="s">
+      <c r="W9" s="318" t="s">
         <v>230</v>
       </c>
-      <c r="X9" s="320" t="s">
+      <c r="X9" s="318" t="s">
         <v>231</v>
       </c>
-      <c r="Y9" s="320" t="s">
+      <c r="Y9" s="318" t="s">
         <v>232</v>
       </c>
       <c r="Z9" s="90"/>
@@ -8737,7 +8755,7 @@
       <c r="AB9" s="92"/>
     </row>
     <row r="10" spans="1:28" ht="13.5" customHeight="1">
-      <c r="A10" s="325" t="s">
+      <c r="A10" s="323" t="s">
         <v>143</v>
       </c>
       <c r="B10" s="93" t="s">
@@ -9030,10 +9048,10 @@
       <c r="A19" s="206"/>
       <c r="B19" s="93"/>
       <c r="C19" s="94"/>
-      <c r="D19" s="390" t="s">
+      <c r="D19" s="448" t="s">
         <v>238</v>
       </c>
-      <c r="E19" s="390"/>
+      <c r="E19" s="448"/>
       <c r="F19" s="183"/>
       <c r="G19" s="183"/>
       <c r="H19" s="183"/>
@@ -9574,24 +9592,24 @@
       <c r="P34" s="203"/>
       <c r="Q34" s="203"/>
       <c r="R34" s="203"/>
-      <c r="S34" s="326"/>
-      <c r="T34" s="326"/>
-      <c r="U34" s="326"/>
-      <c r="V34" s="326"/>
-      <c r="W34" s="326"/>
-      <c r="X34" s="326"/>
-      <c r="Y34" s="326"/>
+      <c r="S34" s="324"/>
+      <c r="T34" s="324"/>
+      <c r="U34" s="324"/>
+      <c r="V34" s="324"/>
+      <c r="W34" s="324"/>
+      <c r="X34" s="324"/>
+      <c r="Y34" s="324"/>
     </row>
     <row r="35" spans="1:25" ht="13.5" customHeight="1" thickTop="1">
       <c r="A35" s="210" t="s">
         <v>163</v>
       </c>
-      <c r="B35" s="387" t="s">
+      <c r="B35" s="445" t="s">
         <v>164</v>
       </c>
-      <c r="C35" s="387"/>
-      <c r="D35" s="387"/>
-      <c r="E35" s="332"/>
+      <c r="C35" s="445"/>
+      <c r="D35" s="445"/>
+      <c r="E35" s="330"/>
       <c r="F35" s="204" t="s">
         <v>108</v>
       </c>
@@ -9631,35 +9649,35 @@
       <c r="R35" s="204" t="s">
         <v>108</v>
       </c>
-      <c r="S35" s="306" t="s">
+      <c r="S35" s="304" t="s">
         <v>108</v>
       </c>
-      <c r="T35" s="306" t="s">
+      <c r="T35" s="304" t="s">
         <v>108</v>
       </c>
-      <c r="U35" s="306" t="s">
+      <c r="U35" s="304" t="s">
         <v>108</v>
       </c>
-      <c r="V35" s="306" t="s">
+      <c r="V35" s="304" t="s">
         <v>108</v>
       </c>
-      <c r="W35" s="306" t="s">
+      <c r="W35" s="304" t="s">
         <v>108</v>
       </c>
-      <c r="X35" s="306" t="s">
+      <c r="X35" s="304" t="s">
         <v>108</v>
       </c>
-      <c r="Y35" s="306" t="s">
+      <c r="Y35" s="304" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="13.5" customHeight="1">
       <c r="A36" s="209"/>
-      <c r="B36" s="409" t="s">
+      <c r="B36" s="404" t="s">
         <v>165</v>
       </c>
-      <c r="C36" s="409"/>
-      <c r="D36" s="409"/>
+      <c r="C36" s="404"/>
+      <c r="D36" s="404"/>
       <c r="E36" s="119"/>
       <c r="F36" s="187" t="s">
         <v>166</v>
@@ -9825,14 +9843,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:K7"/>
@@ -9848,11 +9863,14 @@
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:T6"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <dataValidations count="3">
@@ -9876,7 +9894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="93" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="93" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
@@ -9901,57 +9919,57 @@
       <c r="B1" s="84"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="402" t="s">
+      <c r="A2" s="387" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="501"/>
-      <c r="C2" s="404" t="s">
+      <c r="B2" s="506"/>
+      <c r="C2" s="389" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="502"/>
-      <c r="E2" s="503"/>
-      <c r="F2" s="504" t="s">
+      <c r="D2" s="507"/>
+      <c r="E2" s="508"/>
+      <c r="F2" s="509" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="403"/>
-      <c r="H2" s="403"/>
-      <c r="I2" s="403"/>
-      <c r="J2" s="403"/>
-      <c r="K2" s="501"/>
-      <c r="L2" s="484" t="s">
+      <c r="G2" s="388"/>
+      <c r="H2" s="388"/>
+      <c r="I2" s="388"/>
+      <c r="J2" s="388"/>
+      <c r="K2" s="506"/>
+      <c r="L2" s="503" t="s">
         <v>99</v>
       </c>
-      <c r="M2" s="505"/>
-      <c r="N2" s="505"/>
-      <c r="O2" s="505"/>
-      <c r="P2" s="505"/>
-      <c r="Q2" s="505"/>
-      <c r="R2" s="505"/>
-      <c r="S2" s="505"/>
-      <c r="T2" s="506"/>
+      <c r="M2" s="510"/>
+      <c r="N2" s="510"/>
+      <c r="O2" s="510"/>
+      <c r="P2" s="510"/>
+      <c r="Q2" s="510"/>
+      <c r="R2" s="510"/>
+      <c r="S2" s="510"/>
+      <c r="T2" s="511"/>
       <c r="V2" s="87"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="507" t="s">
+      <c r="A3" s="512" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="508"/>
-      <c r="C3" s="509" t="s">
+      <c r="B3" s="513"/>
+      <c r="C3" s="514" t="s">
         <v>194</v>
       </c>
-      <c r="D3" s="510"/>
-      <c r="E3" s="511"/>
-      <c r="F3" s="378" t="s">
+      <c r="D3" s="431"/>
+      <c r="E3" s="515"/>
+      <c r="F3" s="423" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="379"/>
-      <c r="H3" s="379"/>
-      <c r="I3" s="379"/>
-      <c r="J3" s="379"/>
-      <c r="K3" s="380"/>
-      <c r="L3" s="512"/>
-      <c r="M3" s="510"/>
-      <c r="N3" s="510"/>
+      <c r="G3" s="424"/>
+      <c r="H3" s="424"/>
+      <c r="I3" s="424"/>
+      <c r="J3" s="424"/>
+      <c r="K3" s="425"/>
+      <c r="L3" s="430"/>
+      <c r="M3" s="431"/>
+      <c r="N3" s="431"/>
       <c r="O3" s="188"/>
       <c r="P3" s="188"/>
       <c r="Q3" s="188"/>
@@ -9960,117 +9978,117 @@
       <c r="T3" s="189"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="393" t="s">
+      <c r="A4" s="399" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="394"/>
-      <c r="C4" s="414">
+      <c r="B4" s="400"/>
+      <c r="C4" s="401">
         <v>100</v>
       </c>
-      <c r="D4" s="415"/>
+      <c r="D4" s="402"/>
       <c r="E4" s="198"/>
-      <c r="F4" s="378" t="s">
+      <c r="F4" s="423" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="379"/>
-      <c r="H4" s="379"/>
-      <c r="I4" s="379"/>
-      <c r="J4" s="379"/>
-      <c r="K4" s="380"/>
-      <c r="L4" s="381">
+      <c r="G4" s="424"/>
+      <c r="H4" s="424"/>
+      <c r="I4" s="424"/>
+      <c r="J4" s="424"/>
+      <c r="K4" s="425"/>
+      <c r="L4" s="426">
         <f xml:space="preserve"> IF(FunctionList!E6&lt;&gt;"N/A",SUM(C4*FunctionList!E6/1000,- O7),"N/A")</f>
         <v>0</v>
       </c>
-      <c r="M4" s="382"/>
-      <c r="N4" s="382"/>
-      <c r="O4" s="382"/>
-      <c r="P4" s="382"/>
-      <c r="Q4" s="382"/>
-      <c r="R4" s="382"/>
-      <c r="S4" s="382"/>
-      <c r="T4" s="383"/>
+      <c r="M4" s="427"/>
+      <c r="N4" s="427"/>
+      <c r="O4" s="427"/>
+      <c r="P4" s="427"/>
+      <c r="Q4" s="427"/>
+      <c r="R4" s="427"/>
+      <c r="S4" s="427"/>
+      <c r="T4" s="428"/>
       <c r="V4" s="87"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="393" t="s">
+      <c r="A5" s="399" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="394"/>
-      <c r="C5" s="388" t="s">
+      <c r="B5" s="400"/>
+      <c r="C5" s="405" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="374"/>
-      <c r="E5" s="374"/>
-      <c r="F5" s="374"/>
-      <c r="G5" s="374"/>
-      <c r="H5" s="374"/>
-      <c r="I5" s="374"/>
-      <c r="J5" s="374"/>
-      <c r="K5" s="374"/>
-      <c r="L5" s="374"/>
-      <c r="M5" s="374"/>
-      <c r="N5" s="374"/>
-      <c r="O5" s="374"/>
-      <c r="P5" s="374"/>
-      <c r="Q5" s="374"/>
-      <c r="R5" s="374"/>
-      <c r="S5" s="374"/>
-      <c r="T5" s="500"/>
+      <c r="D5" s="406"/>
+      <c r="E5" s="406"/>
+      <c r="F5" s="406"/>
+      <c r="G5" s="406"/>
+      <c r="H5" s="406"/>
+      <c r="I5" s="406"/>
+      <c r="J5" s="406"/>
+      <c r="K5" s="406"/>
+      <c r="L5" s="406"/>
+      <c r="M5" s="406"/>
+      <c r="N5" s="406"/>
+      <c r="O5" s="406"/>
+      <c r="P5" s="406"/>
+      <c r="Q5" s="406"/>
+      <c r="R5" s="406"/>
+      <c r="S5" s="406"/>
+      <c r="T5" s="516"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A6" s="391" t="s">
+      <c r="A6" s="409" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="392"/>
-      <c r="C6" s="375" t="s">
+      <c r="B6" s="410"/>
+      <c r="C6" s="421" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="376"/>
-      <c r="E6" s="377"/>
-      <c r="F6" s="375" t="s">
+      <c r="D6" s="413"/>
+      <c r="E6" s="422"/>
+      <c r="F6" s="421" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="376"/>
-      <c r="H6" s="376"/>
-      <c r="I6" s="376"/>
-      <c r="J6" s="376"/>
-      <c r="K6" s="384"/>
-      <c r="L6" s="400" t="s">
+      <c r="G6" s="413"/>
+      <c r="H6" s="413"/>
+      <c r="I6" s="413"/>
+      <c r="J6" s="413"/>
+      <c r="K6" s="429"/>
+      <c r="L6" s="416" t="s">
         <v>127</v>
       </c>
-      <c r="M6" s="376"/>
-      <c r="N6" s="384"/>
-      <c r="O6" s="400" t="s">
+      <c r="M6" s="413"/>
+      <c r="N6" s="429"/>
+      <c r="O6" s="416" t="s">
         <v>111</v>
       </c>
-      <c r="P6" s="376"/>
-      <c r="Q6" s="376"/>
-      <c r="R6" s="376"/>
-      <c r="S6" s="376"/>
-      <c r="T6" s="401"/>
+      <c r="P6" s="413"/>
+      <c r="Q6" s="413"/>
+      <c r="R6" s="413"/>
+      <c r="S6" s="413"/>
+      <c r="T6" s="417"/>
       <c r="V6" s="87"/>
     </row>
     <row r="7" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="413">
+      <c r="A7" s="398">
         <f>COUNTIF(F40:HL40,"P")</f>
         <v>4</v>
       </c>
-      <c r="B7" s="412"/>
-      <c r="C7" s="410">
+      <c r="B7" s="397"/>
+      <c r="C7" s="394">
         <f>COUNTIF(F40:HL40,"F")</f>
         <v>6</v>
       </c>
-      <c r="D7" s="398"/>
-      <c r="E7" s="412"/>
-      <c r="F7" s="410">
+      <c r="D7" s="395"/>
+      <c r="E7" s="397"/>
+      <c r="F7" s="394">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="398"/>
-      <c r="H7" s="398"/>
-      <c r="I7" s="398"/>
-      <c r="J7" s="398"/>
-      <c r="K7" s="411"/>
+      <c r="G7" s="395"/>
+      <c r="H7" s="395"/>
+      <c r="I7" s="395"/>
+      <c r="J7" s="395"/>
+      <c r="K7" s="396"/>
       <c r="L7" s="190">
         <f>COUNTIF(E39:HL39,"N")</f>
         <v>8</v>
@@ -10083,15 +10101,15 @@
         <f>COUNTIF(E39:HL39,"B")</f>
         <v>2</v>
       </c>
-      <c r="O7" s="397">
+      <c r="O7" s="414">
         <f>COUNTA(E9:HO9)</f>
         <v>10</v>
       </c>
-      <c r="P7" s="398"/>
-      <c r="Q7" s="398"/>
-      <c r="R7" s="398"/>
-      <c r="S7" s="398"/>
-      <c r="T7" s="399"/>
+      <c r="P7" s="395"/>
+      <c r="Q7" s="395"/>
+      <c r="R7" s="395"/>
+      <c r="S7" s="395"/>
+      <c r="T7" s="415"/>
       <c r="U7" s="88"/>
     </row>
     <row r="8" spans="1:22" ht="10.5" thickBot="1"/>
@@ -10383,10 +10401,10 @@
       <c r="A21" s="206"/>
       <c r="B21" s="93"/>
       <c r="C21" s="94"/>
-      <c r="D21" s="390" t="s">
+      <c r="D21" s="448" t="s">
         <v>253</v>
       </c>
-      <c r="E21" s="487"/>
+      <c r="E21" s="517"/>
       <c r="F21" s="183"/>
       <c r="G21" s="183"/>
       <c r="H21" s="183"/>
@@ -10813,12 +10831,12 @@
       <c r="A39" s="209" t="s">
         <v>163</v>
       </c>
-      <c r="B39" s="488" t="s">
+      <c r="B39" s="518" t="s">
         <v>164</v>
       </c>
-      <c r="C39" s="489"/>
-      <c r="D39" s="490"/>
-      <c r="E39" s="332"/>
+      <c r="C39" s="519"/>
+      <c r="D39" s="520"/>
+      <c r="E39" s="330"/>
       <c r="F39" s="204" t="s">
         <v>108</v>
       </c>
@@ -10852,11 +10870,11 @@
     </row>
     <row r="40" spans="1:15" ht="13.5" customHeight="1">
       <c r="A40" s="209"/>
-      <c r="B40" s="491" t="s">
+      <c r="B40" s="521" t="s">
         <v>165</v>
       </c>
-      <c r="C40" s="492"/>
-      <c r="D40" s="493"/>
+      <c r="C40" s="522"/>
+      <c r="D40" s="523"/>
       <c r="E40" s="119"/>
       <c r="F40" s="187" t="s">
         <v>166</v>
@@ -10891,11 +10909,11 @@
     </row>
     <row r="41" spans="1:15" ht="51.5" thickBot="1">
       <c r="A41" s="222"/>
-      <c r="B41" s="494" t="s">
+      <c r="B41" s="524" t="s">
         <v>167</v>
       </c>
-      <c r="C41" s="495"/>
-      <c r="D41" s="496"/>
+      <c r="C41" s="525"/>
+      <c r="D41" s="526"/>
       <c r="E41" s="120"/>
       <c r="F41" s="121">
         <v>39139</v>
@@ -10930,11 +10948,11 @@
     </row>
     <row r="42" spans="1:15" ht="11" thickTop="1" thickBot="1">
       <c r="A42" s="222"/>
-      <c r="B42" s="497" t="s">
+      <c r="B42" s="527" t="s">
         <v>168</v>
       </c>
-      <c r="C42" s="498"/>
-      <c r="D42" s="499"/>
+      <c r="C42" s="528"/>
+      <c r="D42" s="529"/>
       <c r="E42" s="207"/>
       <c r="F42" s="208"/>
       <c r="G42" s="208"/>
@@ -10950,14 +10968,11 @@
     <row r="43" spans="1:15" ht="10.5" thickTop="1"/>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:K7"/>
@@ -10973,11 +10988,14 @@
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:T6"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F40:O40" xr:uid="{00000000-0002-0000-0B00-000000000000}">
@@ -11016,13 +11034,13 @@
   <sheetData>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="346" t="s">
+      <c r="B2" s="360" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="346"/>
-      <c r="D2" s="346"/>
-      <c r="E2" s="346"/>
-      <c r="F2" s="346"/>
+      <c r="C2" s="360"/>
+      <c r="D2" s="360"/>
+      <c r="E2" s="360"/>
+      <c r="F2" s="360"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4"/>
@@ -11030,44 +11048,44 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="331" t="s">
+      <c r="A4" s="329" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="347" t="s">
+      <c r="B4" s="361" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="347"/>
-      <c r="D4" s="347"/>
-      <c r="E4" s="331" t="s">
+      <c r="C4" s="361"/>
+      <c r="D4" s="361"/>
+      <c r="E4" s="329" t="s">
         <v>48</v>
       </c>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A5" s="331" t="s">
+      <c r="A5" s="329" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="347" t="s">
+      <c r="B5" s="361" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="347"/>
-      <c r="D5" s="347"/>
-      <c r="E5" s="331" t="s">
+      <c r="C5" s="361"/>
+      <c r="D5" s="361"/>
+      <c r="E5" s="329" t="s">
         <v>51</v>
       </c>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="348" t="s">
+      <c r="A6" s="362" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="349" t="str">
+      <c r="B6" s="363" t="str">
         <f>B5&amp;"_"&amp;"XXX"&amp;"_"&amp;"vx.x"</f>
         <v>beautifUnit_XXX_vx.x</v>
       </c>
-      <c r="C6" s="349"/>
-      <c r="D6" s="349"/>
-      <c r="E6" s="331" t="s">
+      <c r="C6" s="363"/>
+      <c r="D6" s="363"/>
+      <c r="E6" s="329" t="s">
         <v>53</v>
       </c>
       <c r="F6" s="159" t="s">
@@ -11075,11 +11093,11 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A7" s="348"/>
-      <c r="B7" s="349"/>
-      <c r="C7" s="349"/>
-      <c r="D7" s="349"/>
-      <c r="E7" s="331" t="s">
+      <c r="A7" s="362"/>
+      <c r="B7" s="363"/>
+      <c r="C7" s="363"/>
+      <c r="D7" s="363"/>
+      <c r="E7" s="329" t="s">
         <v>55</v>
       </c>
       <c r="F7" s="160"/>
@@ -11246,62 +11264,62 @@
       <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="351" t="s">
+      <c r="A4" s="365" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="351"/>
-      <c r="C4" s="351"/>
-      <c r="D4" s="351"/>
-      <c r="E4" s="352" t="str">
+      <c r="B4" s="365"/>
+      <c r="C4" s="365"/>
+      <c r="D4" s="365"/>
+      <c r="E4" s="366" t="str">
         <f>Cover!B4</f>
         <v>UnitTest  beautifME</v>
       </c>
-      <c r="F4" s="353"/>
-      <c r="G4" s="353"/>
-      <c r="H4" s="354"/>
+      <c r="F4" s="367"/>
+      <c r="G4" s="367"/>
+      <c r="H4" s="368"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A5" s="351" t="s">
+      <c r="A5" s="365" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="351"/>
-      <c r="C5" s="351"/>
-      <c r="D5" s="351"/>
-      <c r="E5" s="352" t="str">
+      <c r="B5" s="365"/>
+      <c r="C5" s="365"/>
+      <c r="D5" s="365"/>
+      <c r="E5" s="366" t="str">
         <f>Cover!B5</f>
         <v>beautifUnit</v>
       </c>
-      <c r="F5" s="353"/>
-      <c r="G5" s="353"/>
-      <c r="H5" s="354"/>
+      <c r="F5" s="367"/>
+      <c r="G5" s="367"/>
+      <c r="H5" s="368"/>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A6" s="358" t="s">
+      <c r="A6" s="372" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="359"/>
-      <c r="C6" s="359"/>
-      <c r="D6" s="360"/>
-      <c r="E6" s="328">
+      <c r="B6" s="373"/>
+      <c r="C6" s="373"/>
+      <c r="D6" s="374"/>
+      <c r="E6" s="326">
         <v>100</v>
       </c>
-      <c r="F6" s="329"/>
-      <c r="G6" s="329"/>
-      <c r="H6" s="330"/>
+      <c r="F6" s="327"/>
+      <c r="G6" s="327"/>
+      <c r="H6" s="328"/>
     </row>
     <row r="7" spans="1:8" s="35" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="350" t="s">
+      <c r="A7" s="364" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="350"/>
-      <c r="C7" s="350"/>
-      <c r="D7" s="350"/>
-      <c r="E7" s="355" t="s">
+      <c r="B7" s="364"/>
+      <c r="C7" s="364"/>
+      <c r="D7" s="364"/>
+      <c r="E7" s="369" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="356"/>
-      <c r="G7" s="356"/>
-      <c r="H7" s="357"/>
+      <c r="F7" s="370"/>
+      <c r="G7" s="370"/>
+      <c r="H7" s="371"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="36"/>
@@ -11582,7 +11600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -11600,17 +11618,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A2" s="362" t="s">
+      <c r="A2" s="376" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="362"/>
-      <c r="C2" s="362"/>
-      <c r="D2" s="362"/>
-      <c r="E2" s="362"/>
-      <c r="F2" s="362"/>
-      <c r="G2" s="362"/>
-      <c r="H2" s="362"/>
-      <c r="I2" s="362"/>
+      <c r="B2" s="376"/>
+      <c r="C2" s="376"/>
+      <c r="D2" s="376"/>
+      <c r="E2" s="376"/>
+      <c r="F2" s="376"/>
+      <c r="G2" s="376"/>
+      <c r="H2" s="376"/>
+      <c r="I2" s="376"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1">
       <c r="A3" s="63"/>
@@ -11624,75 +11642,75 @@
       <c r="I3" s="65"/>
     </row>
     <row r="4" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A4" s="327" t="s">
+      <c r="A4" s="325" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="363" t="str">
+      <c r="B4" s="377" t="str">
         <f>Cover!B4</f>
         <v>UnitTest  beautifME</v>
       </c>
-      <c r="C4" s="363"/>
-      <c r="D4" s="364" t="s">
+      <c r="C4" s="377"/>
+      <c r="D4" s="378" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="364"/>
-      <c r="F4" s="365"/>
-      <c r="G4" s="366"/>
-      <c r="H4" s="366"/>
-      <c r="I4" s="367"/>
+      <c r="E4" s="378"/>
+      <c r="F4" s="379"/>
+      <c r="G4" s="380"/>
+      <c r="H4" s="380"/>
+      <c r="I4" s="381"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A5" s="327" t="s">
+      <c r="A5" s="325" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="363" t="str">
+      <c r="B5" s="377" t="str">
         <f>Cover!B5</f>
         <v>beautifUnit</v>
       </c>
-      <c r="C5" s="363"/>
-      <c r="D5" s="364" t="s">
+      <c r="C5" s="377"/>
+      <c r="D5" s="378" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="364"/>
-      <c r="F5" s="365"/>
-      <c r="G5" s="366"/>
-      <c r="H5" s="366"/>
-      <c r="I5" s="367"/>
+      <c r="E5" s="378"/>
+      <c r="F5" s="379"/>
+      <c r="G5" s="380"/>
+      <c r="H5" s="380"/>
+      <c r="I5" s="381"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1">
       <c r="A6" s="195" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="363" t="str">
+      <c r="B6" s="377" t="str">
         <f>B5&amp;"_"&amp;"Test Report"&amp;"_"&amp;"vx.x"</f>
         <v>beautifUnit_Test Report_vx.x</v>
       </c>
-      <c r="C6" s="363"/>
-      <c r="D6" s="364" t="s">
+      <c r="C6" s="377"/>
+      <c r="D6" s="378" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="364"/>
-      <c r="F6" s="368" t="s">
+      <c r="E6" s="378"/>
+      <c r="F6" s="382" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="369"/>
-      <c r="H6" s="369"/>
-      <c r="I6" s="370"/>
+      <c r="G6" s="383"/>
+      <c r="H6" s="383"/>
+      <c r="I6" s="384"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="195" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="361" t="s">
+      <c r="B7" s="375" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="361"/>
-      <c r="D7" s="361"/>
-      <c r="E7" s="361"/>
-      <c r="F7" s="361"/>
-      <c r="G7" s="361"/>
-      <c r="H7" s="361"/>
-      <c r="I7" s="361"/>
+      <c r="C7" s="375"/>
+      <c r="D7" s="375"/>
+      <c r="E7" s="375"/>
+      <c r="F7" s="375"/>
+      <c r="G7" s="375"/>
+      <c r="H7" s="375"/>
+      <c r="I7" s="375"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1">
       <c r="A8" s="66"/>
@@ -11765,11 +11783,11 @@
       </c>
       <c r="C12" s="75">
         <f>Function1!A7</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12" s="75">
         <f>Function1!C7</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" s="75">
         <f>Function1!F7</f>
@@ -11777,11 +11795,11 @@
       </c>
       <c r="F12" s="76">
         <f>Function1!L7</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" s="75">
         <f>Function1!M7</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12" s="75">
         <f>Function1!N7</f>
@@ -12051,11 +12069,11 @@
       </c>
       <c r="C20" s="78">
         <f t="shared" ref="C20:I20" si="0">SUM(C10:C16)</f>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D20" s="78">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20" s="78">
         <f t="shared" si="0"/>
@@ -12063,11 +12081,11 @@
       </c>
       <c r="F20" s="78">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" s="78">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H20" s="78">
         <f t="shared" si="0"/>
@@ -12115,7 +12133,7 @@
       <c r="C23" s="68"/>
       <c r="D23" s="197">
         <f>C20*100/(I20)</f>
-        <v>94.915254237288138</v>
+        <v>98.305084745762713</v>
       </c>
       <c r="E23" s="68" t="s">
         <v>114</v>
@@ -12132,7 +12150,7 @@
       <c r="C24" s="68"/>
       <c r="D24" s="197">
         <f>F20*100/I20</f>
-        <v>59.322033898305087</v>
+        <v>57.627118644067799</v>
       </c>
       <c r="E24" s="68" t="s">
         <v>114</v>
@@ -12144,7 +12162,7 @@
       </c>
       <c r="D25" s="197">
         <f>G20*100/I20</f>
-        <v>16.949152542372882</v>
+        <v>18.64406779661017</v>
       </c>
       <c r="E25" s="68" t="s">
         <v>114</v>
@@ -12200,8 +12218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53:X56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -12209,9 +12227,10 @@
     <col min="1" max="1" width="8.1796875" style="85" customWidth="1"/>
     <col min="2" max="2" width="13.453125" style="89" customWidth="1"/>
     <col min="3" max="3" width="10.7265625" style="85" customWidth="1"/>
-    <col min="4" max="4" width="59.26953125" style="86" customWidth="1"/>
+    <col min="4" max="4" width="59.26953125" style="348" customWidth="1"/>
     <col min="5" max="5" width="1.7265625" style="85" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="2.81640625" style="85" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.26953125" style="85" customWidth="1"/>
+    <col min="7" max="7" width="2.81640625" style="85" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.81640625" style="85" customWidth="1"/>
     <col min="9" max="10" width="2.81640625" style="85" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="2.81640625" style="298" customWidth="1"/>
@@ -12231,202 +12250,204 @@
       <c r="B1" s="84"/>
     </row>
     <row r="2" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A2" s="402" t="s">
+      <c r="A2" s="387" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="403"/>
-      <c r="C2" s="404" t="str">
+      <c r="B2" s="388"/>
+      <c r="C2" s="389" t="str">
         <f>[1]FunctionList!E11</f>
         <v>Function1</v>
       </c>
-      <c r="D2" s="405"/>
-      <c r="E2" s="406"/>
-      <c r="F2" s="407" t="s">
+      <c r="D2" s="390"/>
+      <c r="E2" s="391"/>
+      <c r="F2" s="392" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="408"/>
-      <c r="H2" s="408"/>
-      <c r="I2" s="408"/>
-      <c r="J2" s="408"/>
-      <c r="K2" s="408"/>
-      <c r="L2" s="371" t="str">
+      <c r="G2" s="393"/>
+      <c r="H2" s="393"/>
+      <c r="I2" s="393"/>
+      <c r="J2" s="393"/>
+      <c r="K2" s="393"/>
+      <c r="L2" s="418" t="str">
         <f>[1]FunctionList!D11</f>
         <v>Đăng kí</v>
       </c>
-      <c r="M2" s="372"/>
-      <c r="N2" s="372"/>
-      <c r="O2" s="372"/>
-      <c r="P2" s="372"/>
-      <c r="Q2" s="372"/>
-      <c r="R2" s="372"/>
-      <c r="S2" s="372"/>
-      <c r="T2" s="373"/>
+      <c r="M2" s="419"/>
+      <c r="N2" s="419"/>
+      <c r="O2" s="419"/>
+      <c r="P2" s="419"/>
+      <c r="Q2" s="419"/>
+      <c r="R2" s="419"/>
+      <c r="S2" s="419"/>
+      <c r="T2" s="420"/>
       <c r="V2" s="87"/>
       <c r="W2" s="87"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A3" s="393" t="s">
+      <c r="A3" s="399" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="394"/>
-      <c r="C3" s="388" t="s">
+      <c r="B3" s="400"/>
+      <c r="C3" s="405" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="374"/>
-      <c r="E3" s="389"/>
-      <c r="F3" s="378" t="s">
+      <c r="D3" s="406"/>
+      <c r="E3" s="407"/>
+      <c r="F3" s="423" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="379"/>
-      <c r="H3" s="379"/>
-      <c r="I3" s="379"/>
-      <c r="J3" s="379"/>
-      <c r="K3" s="380"/>
-      <c r="L3" s="374"/>
-      <c r="M3" s="374"/>
-      <c r="N3" s="374"/>
-      <c r="O3" s="188"/>
-      <c r="P3" s="188"/>
-      <c r="Q3" s="304"/>
-      <c r="R3" s="304"/>
-      <c r="S3" s="304"/>
-      <c r="T3" s="189"/>
+      <c r="G3" s="424"/>
+      <c r="H3" s="424"/>
+      <c r="I3" s="424"/>
+      <c r="J3" s="424"/>
+      <c r="K3" s="425"/>
+      <c r="L3" s="430" t="s">
+        <v>121</v>
+      </c>
+      <c r="M3" s="431"/>
+      <c r="N3" s="431"/>
+      <c r="O3" s="431"/>
+      <c r="P3" s="431"/>
+      <c r="Q3" s="431"/>
+      <c r="R3" s="431"/>
+      <c r="S3" s="431"/>
+      <c r="T3" s="432"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A4" s="393" t="s">
+      <c r="A4" s="399" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="394"/>
-      <c r="C4" s="414">
-        <v>100</v>
-      </c>
-      <c r="D4" s="415"/>
+      <c r="B4" s="400"/>
+      <c r="C4" s="401">
+        <v>150</v>
+      </c>
+      <c r="D4" s="402"/>
       <c r="E4" s="198"/>
-      <c r="F4" s="378" t="s">
+      <c r="F4" s="423" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="379"/>
-      <c r="H4" s="379"/>
-      <c r="I4" s="379"/>
-      <c r="J4" s="379"/>
-      <c r="K4" s="380"/>
-      <c r="L4" s="381">
+      <c r="G4" s="424"/>
+      <c r="H4" s="424"/>
+      <c r="I4" s="424"/>
+      <c r="J4" s="424"/>
+      <c r="K4" s="425"/>
+      <c r="L4" s="426">
         <f xml:space="preserve"> IF([1]FunctionList!E6&lt;&gt;"N/A",SUM(C4*[1]FunctionList!E6/1000,- O7),"N/A")</f>
-        <v>-9</v>
-      </c>
-      <c r="M4" s="382"/>
-      <c r="N4" s="382"/>
-      <c r="O4" s="382"/>
-      <c r="P4" s="382"/>
-      <c r="Q4" s="382"/>
-      <c r="R4" s="382"/>
-      <c r="S4" s="382"/>
-      <c r="T4" s="383"/>
+        <v>-4</v>
+      </c>
+      <c r="M4" s="427"/>
+      <c r="N4" s="427"/>
+      <c r="O4" s="427"/>
+      <c r="P4" s="427"/>
+      <c r="Q4" s="427"/>
+      <c r="R4" s="427"/>
+      <c r="S4" s="427"/>
+      <c r="T4" s="428"/>
       <c r="V4" s="87"/>
       <c r="W4" s="87"/>
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A5" s="393" t="s">
+      <c r="A5" s="399" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="394"/>
-      <c r="C5" s="395" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="395"/>
-      <c r="E5" s="395"/>
-      <c r="F5" s="396"/>
-      <c r="G5" s="396"/>
-      <c r="H5" s="396"/>
-      <c r="I5" s="396"/>
-      <c r="J5" s="396"/>
-      <c r="K5" s="396"/>
-      <c r="L5" s="395"/>
-      <c r="M5" s="395"/>
-      <c r="N5" s="395"/>
-      <c r="O5" s="395"/>
-      <c r="P5" s="395"/>
-      <c r="Q5" s="395"/>
-      <c r="R5" s="395"/>
-      <c r="S5" s="395"/>
-      <c r="T5" s="395"/>
+      <c r="B5" s="400"/>
+      <c r="C5" s="411" t="s">
+        <v>285</v>
+      </c>
+      <c r="D5" s="411"/>
+      <c r="E5" s="411"/>
+      <c r="F5" s="412"/>
+      <c r="G5" s="412"/>
+      <c r="H5" s="412"/>
+      <c r="I5" s="412"/>
+      <c r="J5" s="412"/>
+      <c r="K5" s="412"/>
+      <c r="L5" s="411"/>
+      <c r="M5" s="411"/>
+      <c r="N5" s="411"/>
+      <c r="O5" s="411"/>
+      <c r="P5" s="411"/>
+      <c r="Q5" s="411"/>
+      <c r="R5" s="411"/>
+      <c r="S5" s="411"/>
+      <c r="T5" s="411"/>
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A6" s="391" t="s">
+      <c r="A6" s="409" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="392"/>
-      <c r="C6" s="375" t="s">
+      <c r="B6" s="410"/>
+      <c r="C6" s="421" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="376"/>
-      <c r="E6" s="377"/>
-      <c r="F6" s="375" t="s">
+      <c r="D6" s="413"/>
+      <c r="E6" s="422"/>
+      <c r="F6" s="421" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="376"/>
-      <c r="H6" s="376"/>
-      <c r="I6" s="376"/>
-      <c r="J6" s="376"/>
-      <c r="K6" s="384"/>
-      <c r="L6" s="376" t="s">
+      <c r="G6" s="413"/>
+      <c r="H6" s="413"/>
+      <c r="I6" s="413"/>
+      <c r="J6" s="413"/>
+      <c r="K6" s="429"/>
+      <c r="L6" s="413" t="s">
         <v>127</v>
       </c>
-      <c r="M6" s="376"/>
-      <c r="N6" s="376"/>
-      <c r="O6" s="400" t="s">
+      <c r="M6" s="413"/>
+      <c r="N6" s="413"/>
+      <c r="O6" s="416" t="s">
         <v>111</v>
       </c>
-      <c r="P6" s="376"/>
-      <c r="Q6" s="376"/>
-      <c r="R6" s="376"/>
-      <c r="S6" s="376"/>
-      <c r="T6" s="401"/>
+      <c r="P6" s="413"/>
+      <c r="Q6" s="413"/>
+      <c r="R6" s="413"/>
+      <c r="S6" s="413"/>
+      <c r="T6" s="417"/>
       <c r="V6" s="87"/>
       <c r="W6" s="87"/>
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="413">
+      <c r="A7" s="398">
         <f>COUNTIF(F58:HR58,"P")</f>
-        <v>16</v>
-      </c>
-      <c r="B7" s="412"/>
-      <c r="C7" s="410">
+        <v>18</v>
+      </c>
+      <c r="B7" s="397"/>
+      <c r="C7" s="394">
         <f>COUNTIF(F58:HR58,"F")</f>
-        <v>3</v>
-      </c>
-      <c r="D7" s="398"/>
-      <c r="E7" s="412"/>
-      <c r="F7" s="410">
+        <v>1</v>
+      </c>
+      <c r="D7" s="395"/>
+      <c r="E7" s="397"/>
+      <c r="F7" s="394">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="398"/>
-      <c r="H7" s="398"/>
-      <c r="I7" s="398"/>
-      <c r="J7" s="398"/>
-      <c r="K7" s="411"/>
-      <c r="L7" s="513">
+      <c r="G7" s="395"/>
+      <c r="H7" s="395"/>
+      <c r="I7" s="395"/>
+      <c r="J7" s="395"/>
+      <c r="K7" s="396"/>
+      <c r="L7" s="343">
         <f>COUNTIF(E57:HR57,"N")</f>
-        <v>12</v>
-      </c>
-      <c r="M7" s="345">
+        <v>11</v>
+      </c>
+      <c r="M7" s="342">
         <f>COUNTIF(E57:HR57,"A")</f>
-        <v>4</v>
-      </c>
-      <c r="N7" s="513">
+        <v>5</v>
+      </c>
+      <c r="N7" s="343">
         <f>COUNTIF(E57:HR57,"B")</f>
         <v>3</v>
       </c>
-      <c r="O7" s="397">
+      <c r="O7" s="414">
         <f>COUNTA(E9:HX9)</f>
         <v>19</v>
       </c>
-      <c r="P7" s="398"/>
-      <c r="Q7" s="398"/>
-      <c r="R7" s="398"/>
-      <c r="S7" s="398"/>
-      <c r="T7" s="399"/>
+      <c r="P7" s="395"/>
+      <c r="Q7" s="395"/>
+      <c r="R7" s="395"/>
+      <c r="S7" s="395"/>
+      <c r="T7" s="415"/>
       <c r="U7" s="88"/>
     </row>
     <row r="8" spans="1:26" ht="10.5" thickBot="1"/>
@@ -12451,49 +12472,49 @@
       <c r="J9" s="227" t="s">
         <v>132</v>
       </c>
-      <c r="K9" s="305" t="s">
+      <c r="K9" s="303" t="s">
         <v>133</v>
       </c>
-      <c r="L9" s="305" t="s">
+      <c r="L9" s="303" t="s">
         <v>134</v>
       </c>
-      <c r="M9" s="305" t="s">
+      <c r="M9" s="303" t="s">
         <v>135</v>
       </c>
-      <c r="N9" s="305" t="s">
+      <c r="N9" s="303" t="s">
         <v>136</v>
       </c>
-      <c r="O9" s="305" t="s">
+      <c r="O9" s="303" t="s">
         <v>137</v>
       </c>
-      <c r="P9" s="305" t="s">
+      <c r="P9" s="303" t="s">
         <v>138</v>
       </c>
-      <c r="Q9" s="305" t="s">
+      <c r="Q9" s="303" t="s">
         <v>139</v>
       </c>
-      <c r="R9" s="305" t="s">
+      <c r="R9" s="303" t="s">
         <v>140</v>
       </c>
-      <c r="S9" s="305" t="s">
+      <c r="S9" s="303" t="s">
         <v>141</v>
       </c>
-      <c r="T9" s="305" t="s">
+      <c r="T9" s="303" t="s">
         <v>142</v>
       </c>
-      <c r="U9" s="340" t="s">
+      <c r="U9" s="337" t="s">
         <v>228</v>
       </c>
-      <c r="V9" s="340" t="s">
+      <c r="V9" s="337" t="s">
         <v>229</v>
       </c>
-      <c r="W9" s="340" t="s">
+      <c r="W9" s="337" t="s">
         <v>230</v>
       </c>
-      <c r="X9" s="341" t="s">
+      <c r="X9" s="338" t="s">
         <v>231</v>
       </c>
-      <c r="Y9" s="514"/>
+      <c r="Y9" s="344"/>
       <c r="Z9" s="87"/>
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
@@ -12505,7 +12526,7 @@
       </c>
       <c r="C10" s="213"/>
       <c r="D10" s="214"/>
-      <c r="E10" s="515"/>
+      <c r="E10" s="345"/>
       <c r="F10" s="185"/>
       <c r="G10" s="185"/>
       <c r="H10" s="185"/>
@@ -12520,7 +12541,7 @@
       <c r="Q10" s="299"/>
       <c r="R10" s="299"/>
       <c r="S10" s="299"/>
-      <c r="T10" s="334"/>
+      <c r="T10" s="332"/>
       <c r="U10" s="120"/>
       <c r="V10" s="120"/>
       <c r="W10" s="120"/>
@@ -12533,7 +12554,7 @@
       <c r="D11" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="E11" s="515"/>
+      <c r="E11" s="345"/>
       <c r="F11" s="183"/>
       <c r="G11" s="183"/>
       <c r="H11" s="183"/>
@@ -12548,10 +12569,10 @@
       <c r="Q11" s="300"/>
       <c r="R11" s="300"/>
       <c r="S11" s="300"/>
-      <c r="T11" s="335"/>
+      <c r="T11" s="333"/>
       <c r="U11" s="120"/>
-      <c r="V11" s="342"/>
-      <c r="W11" s="342"/>
+      <c r="V11" s="339"/>
+      <c r="W11" s="339"/>
       <c r="X11" s="120"/>
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
@@ -12561,7 +12582,7 @@
       </c>
       <c r="C12" s="94"/>
       <c r="D12" s="95"/>
-      <c r="E12" s="515"/>
+      <c r="E12" s="345"/>
       <c r="F12" s="183"/>
       <c r="G12" s="183"/>
       <c r="H12" s="183"/>
@@ -12576,7 +12597,7 @@
       <c r="Q12" s="300"/>
       <c r="R12" s="300"/>
       <c r="S12" s="300"/>
-      <c r="T12" s="335"/>
+      <c r="T12" s="333"/>
       <c r="U12" s="120"/>
       <c r="V12" s="120"/>
       <c r="W12" s="120"/>
@@ -12589,7 +12610,7 @@
       <c r="D13" s="95" t="s">
         <v>266</v>
       </c>
-      <c r="E13" s="516"/>
+      <c r="E13" s="346"/>
       <c r="F13" s="183" t="s">
         <v>147</v>
       </c>
@@ -12628,27 +12649,25 @@
       <c r="S13" s="300" t="s">
         <v>147</v>
       </c>
-      <c r="T13" s="335"/>
-      <c r="U13" s="343" t="s">
-        <v>147</v>
-      </c>
-      <c r="V13" s="343" t="s">
-        <v>147</v>
-      </c>
-      <c r="W13" s="343" t="s">
-        <v>147</v>
-      </c>
-      <c r="X13" s="343" t="s">
+      <c r="T13" s="333"/>
+      <c r="U13" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="V13" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="W13" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="X13" s="340" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
       <c r="A14" s="206"/>
       <c r="C14" s="94"/>
-      <c r="D14" s="95" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="517"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="347"/>
       <c r="F14" s="183"/>
       <c r="G14" s="183"/>
       <c r="H14" s="183"/>
@@ -12667,13 +12686,13 @@
       <c r="Q14" s="300"/>
       <c r="R14" s="300"/>
       <c r="S14" s="300"/>
-      <c r="T14" s="335" t="s">
-        <v>147</v>
-      </c>
-      <c r="U14" s="343"/>
-      <c r="V14" s="343"/>
-      <c r="W14" s="343"/>
-      <c r="X14" s="343"/>
+      <c r="T14" s="333" t="s">
+        <v>147</v>
+      </c>
+      <c r="U14" s="340"/>
+      <c r="V14" s="340"/>
+      <c r="W14" s="340"/>
+      <c r="X14" s="340"/>
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
       <c r="A15" s="206"/>
@@ -12682,7 +12701,7 @@
       </c>
       <c r="C15" s="94"/>
       <c r="D15" s="95"/>
-      <c r="E15" s="517"/>
+      <c r="E15" s="347"/>
       <c r="F15" s="183"/>
       <c r="G15" s="183"/>
       <c r="H15" s="183"/>
@@ -12697,11 +12716,11 @@
       <c r="Q15" s="300"/>
       <c r="R15" s="300"/>
       <c r="S15" s="300"/>
-      <c r="T15" s="335"/>
-      <c r="U15" s="343"/>
-      <c r="V15" s="343"/>
-      <c r="W15" s="343"/>
-      <c r="X15" s="343"/>
+      <c r="T15" s="333"/>
+      <c r="U15" s="340"/>
+      <c r="V15" s="340"/>
+      <c r="W15" s="340"/>
+      <c r="X15" s="340"/>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
       <c r="A16" s="206"/>
@@ -12710,7 +12729,7 @@
       <c r="D16" s="95" t="s">
         <v>267</v>
       </c>
-      <c r="E16" s="517"/>
+      <c r="E16" s="347"/>
       <c r="F16" s="183" t="s">
         <v>147</v>
       </c>
@@ -12749,17 +12768,17 @@
       <c r="S16" s="300" t="s">
         <v>147</v>
       </c>
-      <c r="T16" s="335"/>
-      <c r="U16" s="343" t="s">
-        <v>147</v>
-      </c>
-      <c r="V16" s="343" t="s">
-        <v>147</v>
-      </c>
-      <c r="W16" s="343" t="s">
-        <v>147</v>
-      </c>
-      <c r="X16" s="343" t="s">
+      <c r="T16" s="333"/>
+      <c r="U16" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="V16" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="W16" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="X16" s="340" t="s">
         <v>147</v>
       </c>
     </row>
@@ -12767,10 +12786,8 @@
       <c r="A17" s="206"/>
       <c r="B17" s="93"/>
       <c r="C17" s="94"/>
-      <c r="D17" s="95" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="517"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="347"/>
       <c r="F17" s="183"/>
       <c r="G17" s="183"/>
       <c r="H17" s="183"/>
@@ -12789,13 +12806,13 @@
         <v>147</v>
       </c>
       <c r="S17" s="300"/>
-      <c r="T17" s="335" t="s">
-        <v>147</v>
-      </c>
-      <c r="U17" s="343"/>
-      <c r="V17" s="343"/>
-      <c r="W17" s="343"/>
-      <c r="X17" s="343"/>
+      <c r="T17" s="333" t="s">
+        <v>147</v>
+      </c>
+      <c r="U17" s="340"/>
+      <c r="V17" s="340"/>
+      <c r="W17" s="340"/>
+      <c r="X17" s="340"/>
     </row>
     <row r="18" spans="1:24" ht="13.5" customHeight="1">
       <c r="A18" s="206"/>
@@ -12804,7 +12821,7 @@
       </c>
       <c r="C18" s="94"/>
       <c r="D18" s="95"/>
-      <c r="E18" s="517"/>
+      <c r="E18" s="347"/>
       <c r="F18" s="183"/>
       <c r="G18" s="183"/>
       <c r="H18" s="183"/>
@@ -12819,11 +12836,11 @@
       <c r="Q18" s="300"/>
       <c r="R18" s="300"/>
       <c r="S18" s="300"/>
-      <c r="T18" s="335"/>
+      <c r="T18" s="333"/>
       <c r="U18" s="183"/>
-      <c r="V18" s="343"/>
-      <c r="W18" s="343"/>
-      <c r="X18" s="343"/>
+      <c r="V18" s="340"/>
+      <c r="W18" s="340"/>
+      <c r="X18" s="340"/>
     </row>
     <row r="19" spans="1:24" ht="13.5" customHeight="1">
       <c r="A19" s="206"/>
@@ -12832,7 +12849,7 @@
       <c r="D19" s="292" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="517"/>
+      <c r="E19" s="347"/>
       <c r="F19" s="183" t="s">
         <v>147</v>
       </c>
@@ -12869,17 +12886,17 @@
       <c r="S19" s="300" t="s">
         <v>147</v>
       </c>
-      <c r="T19" s="335"/>
+      <c r="T19" s="333"/>
       <c r="U19" s="183" t="s">
         <v>147</v>
       </c>
-      <c r="V19" s="343" t="s">
-        <v>147</v>
-      </c>
-      <c r="W19" s="343" t="s">
-        <v>147</v>
-      </c>
-      <c r="X19" s="343" t="s">
+      <c r="V19" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="W19" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="X19" s="340" t="s">
         <v>147</v>
       </c>
     </row>
@@ -12890,7 +12907,7 @@
       <c r="D20" s="286" t="s">
         <v>152</v>
       </c>
-      <c r="E20" s="517"/>
+      <c r="E20" s="347"/>
       <c r="F20" s="183"/>
       <c r="G20" s="183" t="s">
         <v>147</v>
@@ -12909,22 +12926,20 @@
       <c r="Q20" s="300"/>
       <c r="R20" s="300"/>
       <c r="S20" s="300"/>
-      <c r="T20" s="335" t="s">
+      <c r="T20" s="333" t="s">
         <v>147</v>
       </c>
       <c r="U20" s="183"/>
-      <c r="V20" s="343"/>
-      <c r="W20" s="343"/>
-      <c r="X20" s="343"/>
+      <c r="V20" s="340"/>
+      <c r="W20" s="340"/>
+      <c r="X20" s="340"/>
     </row>
     <row r="21" spans="1:24" ht="13.5" customHeight="1">
       <c r="A21" s="206"/>
       <c r="B21" s="93"/>
       <c r="C21" s="94"/>
-      <c r="D21" s="518" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="518"/>
+      <c r="D21" s="408"/>
+      <c r="E21" s="408"/>
       <c r="F21" s="183"/>
       <c r="G21" s="183"/>
       <c r="H21" s="183" t="s">
@@ -12941,11 +12956,11 @@
       <c r="Q21" s="300"/>
       <c r="R21" s="300"/>
       <c r="S21" s="300"/>
-      <c r="T21" s="335"/>
-      <c r="U21" s="343"/>
-      <c r="V21" s="343"/>
-      <c r="W21" s="343"/>
-      <c r="X21" s="343"/>
+      <c r="T21" s="333"/>
+      <c r="U21" s="340"/>
+      <c r="V21" s="340"/>
+      <c r="W21" s="340"/>
+      <c r="X21" s="340"/>
     </row>
     <row r="22" spans="1:24" ht="13.5" customHeight="1">
       <c r="A22" s="206"/>
@@ -12954,7 +12969,7 @@
       </c>
       <c r="C22" s="94"/>
       <c r="D22" s="95"/>
-      <c r="E22" s="517"/>
+      <c r="E22" s="347"/>
       <c r="F22" s="183"/>
       <c r="G22" s="183"/>
       <c r="H22" s="183"/>
@@ -12969,11 +12984,11 @@
       <c r="Q22" s="300"/>
       <c r="R22" s="300"/>
       <c r="S22" s="300"/>
-      <c r="T22" s="335"/>
-      <c r="U22" s="343"/>
-      <c r="V22" s="343"/>
-      <c r="W22" s="343"/>
-      <c r="X22" s="343"/>
+      <c r="T22" s="333"/>
+      <c r="U22" s="340"/>
+      <c r="V22" s="340"/>
+      <c r="W22" s="340"/>
+      <c r="X22" s="340"/>
     </row>
     <row r="23" spans="1:24" ht="13.5" customHeight="1">
       <c r="A23" s="206"/>
@@ -12982,7 +12997,7 @@
       <c r="D23" s="95" t="s">
         <v>272</v>
       </c>
-      <c r="E23" s="517"/>
+      <c r="E23" s="347"/>
       <c r="F23" s="183"/>
       <c r="G23" s="183"/>
       <c r="H23" s="183"/>
@@ -12999,20 +13014,20 @@
       <c r="Q23" s="300"/>
       <c r="R23" s="300"/>
       <c r="S23" s="300"/>
-      <c r="T23" s="335"/>
-      <c r="U23" s="343"/>
-      <c r="V23" s="343"/>
-      <c r="W23" s="343"/>
-      <c r="X23" s="343"/>
+      <c r="T23" s="333"/>
+      <c r="U23" s="340"/>
+      <c r="V23" s="340"/>
+      <c r="W23" s="340"/>
+      <c r="X23" s="340"/>
     </row>
     <row r="24" spans="1:24" ht="13.5" customHeight="1">
       <c r="A24" s="206"/>
-      <c r="B24" s="519"/>
+      <c r="B24" s="349"/>
       <c r="C24" s="94"/>
       <c r="D24" s="95" t="s">
         <v>268</v>
       </c>
-      <c r="E24" s="517"/>
+      <c r="E24" s="347"/>
       <c r="F24" s="183" t="s">
         <v>147</v>
       </c>
@@ -13035,22 +13050,22 @@
       <c r="Q24" s="300"/>
       <c r="R24" s="300"/>
       <c r="S24" s="300"/>
-      <c r="T24" s="335" t="s">
-        <v>147</v>
-      </c>
-      <c r="U24" s="343"/>
-      <c r="V24" s="343"/>
-      <c r="W24" s="343"/>
-      <c r="X24" s="343"/>
+      <c r="T24" s="333" t="s">
+        <v>147</v>
+      </c>
+      <c r="U24" s="340"/>
+      <c r="V24" s="340"/>
+      <c r="W24" s="340"/>
+      <c r="X24" s="340"/>
     </row>
     <row r="25" spans="1:24" ht="13.5" customHeight="1">
       <c r="A25" s="206"/>
-      <c r="B25" s="519"/>
+      <c r="B25" s="349"/>
       <c r="C25" s="94"/>
       <c r="D25" s="95" t="s">
         <v>269</v>
       </c>
-      <c r="E25" s="517"/>
+      <c r="E25" s="347"/>
       <c r="F25" s="183"/>
       <c r="G25" s="183"/>
       <c r="H25" s="183"/>
@@ -13071,20 +13086,20 @@
       <c r="Q25" s="300"/>
       <c r="R25" s="300"/>
       <c r="S25" s="300"/>
-      <c r="T25" s="335"/>
-      <c r="U25" s="343"/>
-      <c r="V25" s="343"/>
-      <c r="W25" s="343"/>
-      <c r="X25" s="343"/>
+      <c r="T25" s="333"/>
+      <c r="U25" s="340"/>
+      <c r="V25" s="340"/>
+      <c r="W25" s="340"/>
+      <c r="X25" s="340"/>
     </row>
     <row r="26" spans="1:24" ht="13.5" customHeight="1">
       <c r="A26" s="206"/>
-      <c r="B26" s="519"/>
+      <c r="B26" s="349"/>
       <c r="C26" s="94"/>
       <c r="D26" s="95" t="s">
-        <v>273</v>
-      </c>
-      <c r="E26" s="517"/>
+        <v>292</v>
+      </c>
+      <c r="E26" s="347"/>
       <c r="F26" s="183"/>
       <c r="G26" s="183"/>
       <c r="H26" s="183"/>
@@ -13103,20 +13118,20 @@
       </c>
       <c r="R26" s="300"/>
       <c r="S26" s="300"/>
-      <c r="T26" s="335"/>
-      <c r="U26" s="343"/>
-      <c r="V26" s="343"/>
-      <c r="W26" s="343"/>
-      <c r="X26" s="343"/>
+      <c r="T26" s="333"/>
+      <c r="U26" s="340"/>
+      <c r="V26" s="340"/>
+      <c r="W26" s="340"/>
+      <c r="X26" s="340"/>
     </row>
     <row r="27" spans="1:24" ht="13.5" customHeight="1">
       <c r="A27" s="206"/>
-      <c r="B27" s="519"/>
+      <c r="B27" s="349"/>
       <c r="C27" s="94"/>
       <c r="D27" s="95" t="s">
-        <v>281</v>
-      </c>
-      <c r="E27" s="517"/>
+        <v>279</v>
+      </c>
+      <c r="E27" s="347"/>
       <c r="F27" s="183"/>
       <c r="G27" s="183"/>
       <c r="H27" s="183"/>
@@ -13131,22 +13146,22 @@
       <c r="Q27" s="300"/>
       <c r="R27" s="300"/>
       <c r="S27" s="300"/>
-      <c r="T27" s="335"/>
-      <c r="U27" s="343"/>
-      <c r="V27" s="343"/>
-      <c r="W27" s="343"/>
-      <c r="X27" s="343" t="s">
+      <c r="T27" s="333"/>
+      <c r="U27" s="340"/>
+      <c r="V27" s="340"/>
+      <c r="W27" s="340"/>
+      <c r="X27" s="340" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="13.5" customHeight="1">
       <c r="A28" s="206"/>
-      <c r="B28" s="519"/>
+      <c r="B28" s="349"/>
       <c r="C28" s="94"/>
       <c r="D28" s="95" t="s">
-        <v>280</v>
-      </c>
-      <c r="E28" s="517"/>
+        <v>278</v>
+      </c>
+      <c r="E28" s="347"/>
       <c r="F28" s="183"/>
       <c r="G28" s="183"/>
       <c r="H28" s="183"/>
@@ -13161,24 +13176,24 @@
       <c r="Q28" s="300"/>
       <c r="R28" s="300"/>
       <c r="S28" s="300"/>
-      <c r="T28" s="335"/>
-      <c r="U28" s="343"/>
-      <c r="V28" s="343" t="s">
-        <v>147</v>
-      </c>
-      <c r="W28" s="343" t="s">
-        <v>147</v>
-      </c>
-      <c r="X28" s="343"/>
+      <c r="T28" s="333"/>
+      <c r="U28" s="340"/>
+      <c r="V28" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="W28" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="X28" s="340"/>
     </row>
     <row r="29" spans="1:24" ht="13.5" customHeight="1">
       <c r="A29" s="206"/>
-      <c r="B29" s="519"/>
+      <c r="B29" s="349"/>
       <c r="C29" s="94"/>
       <c r="D29" s="95" t="s">
         <v>271</v>
       </c>
-      <c r="E29" s="517"/>
+      <c r="E29" s="347"/>
       <c r="F29" s="183"/>
       <c r="G29" s="183"/>
       <c r="H29" s="183"/>
@@ -13193,22 +13208,22 @@
       <c r="Q29" s="300"/>
       <c r="R29" s="300"/>
       <c r="S29" s="300"/>
-      <c r="T29" s="335"/>
-      <c r="U29" s="343" t="s">
-        <v>147</v>
-      </c>
-      <c r="V29" s="343"/>
-      <c r="W29" s="343"/>
-      <c r="X29" s="343"/>
+      <c r="T29" s="333"/>
+      <c r="U29" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="V29" s="340"/>
+      <c r="W29" s="340"/>
+      <c r="X29" s="340"/>
     </row>
     <row r="30" spans="1:24" ht="13.5" customHeight="1">
       <c r="A30" s="206"/>
-      <c r="B30" s="519"/>
+      <c r="B30" s="349"/>
       <c r="C30" s="94"/>
       <c r="D30" s="95" t="s">
         <v>270</v>
       </c>
-      <c r="E30" s="517"/>
+      <c r="E30" s="347"/>
       <c r="F30" s="183"/>
       <c r="G30" s="183"/>
       <c r="H30" s="183"/>
@@ -13229,19 +13244,17 @@
       <c r="S30" s="300" t="s">
         <v>147</v>
       </c>
-      <c r="T30" s="335"/>
-      <c r="U30" s="343"/>
-      <c r="V30" s="343"/>
-      <c r="W30" s="343"/>
-      <c r="X30" s="343"/>
+      <c r="T30" s="333"/>
+      <c r="U30" s="340"/>
+      <c r="V30" s="340"/>
+      <c r="W30" s="340"/>
+      <c r="X30" s="340"/>
     </row>
     <row r="31" spans="1:24" ht="13.5" customHeight="1">
       <c r="A31" s="206"/>
       <c r="C31" s="94"/>
-      <c r="D31" s="95" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="517"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="347"/>
       <c r="F31" s="183"/>
       <c r="G31" s="183"/>
       <c r="H31" s="183"/>
@@ -13258,11 +13271,11 @@
       <c r="Q31" s="300"/>
       <c r="R31" s="300"/>
       <c r="S31" s="300"/>
-      <c r="T31" s="335"/>
-      <c r="U31" s="343"/>
-      <c r="V31" s="343"/>
-      <c r="W31" s="343"/>
-      <c r="X31" s="343"/>
+      <c r="T31" s="333"/>
+      <c r="U31" s="340"/>
+      <c r="V31" s="340"/>
+      <c r="W31" s="340"/>
+      <c r="X31" s="340"/>
     </row>
     <row r="32" spans="1:24" ht="13.5" customHeight="1">
       <c r="A32" s="206"/>
@@ -13271,7 +13284,7 @@
       </c>
       <c r="C32" s="94"/>
       <c r="D32" s="95"/>
-      <c r="E32" s="517"/>
+      <c r="E32" s="347"/>
       <c r="F32" s="183"/>
       <c r="G32" s="183"/>
       <c r="H32" s="183"/>
@@ -13286,11 +13299,11 @@
       <c r="Q32" s="300"/>
       <c r="R32" s="300"/>
       <c r="S32" s="300"/>
-      <c r="T32" s="335"/>
-      <c r="U32" s="343"/>
-      <c r="V32" s="343"/>
-      <c r="W32" s="343"/>
-      <c r="X32" s="343"/>
+      <c r="T32" s="333"/>
+      <c r="U32" s="340"/>
+      <c r="V32" s="340"/>
+      <c r="W32" s="340"/>
+      <c r="X32" s="340"/>
     </row>
     <row r="33" spans="1:24" ht="13.5" customHeight="1">
       <c r="A33" s="206"/>
@@ -13299,7 +13312,7 @@
       <c r="D33" s="95">
         <v>12345678</v>
       </c>
-      <c r="E33" s="517"/>
+      <c r="E33" s="347"/>
       <c r="F33" s="183"/>
       <c r="G33" s="183"/>
       <c r="H33" s="183"/>
@@ -13314,22 +13327,22 @@
       <c r="Q33" s="300"/>
       <c r="R33" s="300"/>
       <c r="S33" s="300"/>
-      <c r="T33" s="335"/>
-      <c r="U33" s="343" t="s">
-        <v>147</v>
-      </c>
-      <c r="V33" s="343"/>
-      <c r="W33" s="343"/>
-      <c r="X33" s="343"/>
+      <c r="T33" s="333"/>
+      <c r="U33" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="V33" s="340"/>
+      <c r="W33" s="340"/>
+      <c r="X33" s="340"/>
     </row>
     <row r="34" spans="1:24" ht="13.5" customHeight="1">
       <c r="A34" s="206"/>
       <c r="B34" s="93"/>
       <c r="C34" s="94"/>
       <c r="D34" s="95" t="s">
-        <v>274</v>
-      </c>
-      <c r="E34" s="517"/>
+        <v>286</v>
+      </c>
+      <c r="E34" s="347"/>
       <c r="F34" s="183"/>
       <c r="G34" s="183"/>
       <c r="H34" s="183"/>
@@ -13344,22 +13357,22 @@
       <c r="Q34" s="300"/>
       <c r="R34" s="300"/>
       <c r="S34" s="300"/>
-      <c r="T34" s="335"/>
-      <c r="U34" s="343"/>
-      <c r="V34" s="343" t="s">
-        <v>147</v>
-      </c>
-      <c r="W34" s="343"/>
-      <c r="X34" s="343"/>
+      <c r="T34" s="333"/>
+      <c r="U34" s="340"/>
+      <c r="V34" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="W34" s="340"/>
+      <c r="X34" s="340"/>
     </row>
     <row r="35" spans="1:24" ht="13.5" customHeight="1">
       <c r="A35" s="206"/>
       <c r="B35" s="93"/>
       <c r="C35" s="94"/>
       <c r="D35" s="95" t="s">
-        <v>275</v>
-      </c>
-      <c r="E35" s="517"/>
+        <v>273</v>
+      </c>
+      <c r="E35" s="347"/>
       <c r="F35" s="183"/>
       <c r="G35" s="183"/>
       <c r="H35" s="183"/>
@@ -13374,11 +13387,11 @@
       <c r="Q35" s="300"/>
       <c r="R35" s="300"/>
       <c r="S35" s="300"/>
-      <c r="T35" s="335"/>
-      <c r="U35" s="343"/>
-      <c r="V35" s="343"/>
-      <c r="W35" s="343"/>
-      <c r="X35" s="343" t="s">
+      <c r="T35" s="333"/>
+      <c r="U35" s="340"/>
+      <c r="V35" s="340"/>
+      <c r="W35" s="340"/>
+      <c r="X35" s="340" t="s">
         <v>147</v>
       </c>
     </row>
@@ -13387,9 +13400,9 @@
       <c r="B36" s="93"/>
       <c r="C36" s="94"/>
       <c r="D36" s="95" t="s">
-        <v>289</v>
-      </c>
-      <c r="E36" s="517"/>
+        <v>288</v>
+      </c>
+      <c r="E36" s="347"/>
       <c r="F36" s="183"/>
       <c r="G36" s="183"/>
       <c r="H36" s="183"/>
@@ -13404,22 +13417,22 @@
       <c r="Q36" s="300"/>
       <c r="R36" s="300"/>
       <c r="S36" s="300"/>
-      <c r="T36" s="335"/>
-      <c r="U36" s="343"/>
-      <c r="V36" s="343"/>
-      <c r="W36" s="343" t="s">
-        <v>147</v>
-      </c>
-      <c r="X36" s="343"/>
+      <c r="T36" s="333"/>
+      <c r="U36" s="340"/>
+      <c r="V36" s="340"/>
+      <c r="W36" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="X36" s="340"/>
     </row>
     <row r="37" spans="1:24" ht="13.5" customHeight="1">
       <c r="A37" s="206"/>
       <c r="B37" s="93"/>
       <c r="C37" s="94"/>
       <c r="D37" s="95" t="s">
-        <v>276</v>
-      </c>
-      <c r="E37" s="517"/>
+        <v>274</v>
+      </c>
+      <c r="E37" s="347"/>
       <c r="F37" s="183" t="s">
         <v>147</v>
       </c>
@@ -13454,22 +13467,22 @@
       </c>
       <c r="R37" s="300"/>
       <c r="S37" s="300"/>
-      <c r="T37" s="335" t="s">
-        <v>147</v>
-      </c>
-      <c r="U37" s="343"/>
-      <c r="V37" s="343"/>
-      <c r="W37" s="343"/>
-      <c r="X37" s="343"/>
+      <c r="T37" s="333" t="s">
+        <v>147</v>
+      </c>
+      <c r="U37" s="340"/>
+      <c r="V37" s="340"/>
+      <c r="W37" s="340"/>
+      <c r="X37" s="340"/>
     </row>
     <row r="38" spans="1:24" ht="13.5" customHeight="1">
       <c r="A38" s="206"/>
       <c r="B38" s="93"/>
       <c r="C38" s="94"/>
       <c r="D38" s="95" t="s">
-        <v>277</v>
-      </c>
-      <c r="E38" s="517"/>
+        <v>275</v>
+      </c>
+      <c r="E38" s="347"/>
       <c r="F38" s="183"/>
       <c r="G38" s="183"/>
       <c r="H38" s="183"/>
@@ -13490,18 +13503,18 @@
       <c r="S38" s="300" t="s">
         <v>147</v>
       </c>
-      <c r="T38" s="335"/>
-      <c r="U38" s="343"/>
-      <c r="V38" s="343"/>
-      <c r="W38" s="343"/>
-      <c r="X38" s="343"/>
+      <c r="T38" s="333"/>
+      <c r="U38" s="340"/>
+      <c r="V38" s="340"/>
+      <c r="W38" s="340"/>
+      <c r="X38" s="340"/>
     </row>
     <row r="39" spans="1:24" ht="13.5" customHeight="1">
       <c r="A39" s="206"/>
       <c r="B39" s="93"/>
       <c r="C39" s="94"/>
       <c r="D39" s="95"/>
-      <c r="E39" s="517"/>
+      <c r="E39" s="347"/>
       <c r="F39" s="183"/>
       <c r="G39" s="183"/>
       <c r="H39" s="183"/>
@@ -13518,11 +13531,11 @@
       <c r="Q39" s="300"/>
       <c r="R39" s="300"/>
       <c r="S39" s="300"/>
-      <c r="T39" s="335"/>
-      <c r="U39" s="343"/>
-      <c r="V39" s="343"/>
-      <c r="W39" s="343"/>
-      <c r="X39" s="343"/>
+      <c r="T39" s="333"/>
+      <c r="U39" s="340"/>
+      <c r="V39" s="340"/>
+      <c r="W39" s="340"/>
+      <c r="X39" s="340"/>
     </row>
     <row r="40" spans="1:24" ht="13.5" customHeight="1">
       <c r="A40" s="206"/>
@@ -13531,7 +13544,7 @@
       </c>
       <c r="C40" s="94"/>
       <c r="D40" s="95"/>
-      <c r="E40" s="517"/>
+      <c r="E40" s="347"/>
       <c r="F40" s="183"/>
       <c r="G40" s="183"/>
       <c r="H40" s="183"/>
@@ -13546,11 +13559,11 @@
       <c r="Q40" s="300"/>
       <c r="R40" s="300"/>
       <c r="S40" s="300"/>
-      <c r="T40" s="335"/>
-      <c r="U40" s="343"/>
-      <c r="V40" s="343"/>
-      <c r="W40" s="343"/>
-      <c r="X40" s="343"/>
+      <c r="T40" s="333"/>
+      <c r="U40" s="340"/>
+      <c r="V40" s="340"/>
+      <c r="W40" s="340"/>
+      <c r="X40" s="340"/>
     </row>
     <row r="41" spans="1:24" ht="13.5" customHeight="1">
       <c r="A41" s="206"/>
@@ -13559,7 +13572,7 @@
       <c r="D41" s="95">
         <v>12345678</v>
       </c>
-      <c r="E41" s="517"/>
+      <c r="E41" s="347"/>
       <c r="F41" s="183"/>
       <c r="G41" s="183"/>
       <c r="H41" s="183"/>
@@ -13574,22 +13587,22 @@
       <c r="Q41" s="300"/>
       <c r="R41" s="300"/>
       <c r="S41" s="300"/>
-      <c r="T41" s="335"/>
-      <c r="U41" s="343" t="s">
-        <v>147</v>
-      </c>
-      <c r="V41" s="343"/>
-      <c r="W41" s="343"/>
-      <c r="X41" s="343"/>
+      <c r="T41" s="333"/>
+      <c r="U41" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="V41" s="340"/>
+      <c r="W41" s="340"/>
+      <c r="X41" s="340"/>
     </row>
     <row r="42" spans="1:24" ht="13.5" customHeight="1">
       <c r="A42" s="206"/>
       <c r="B42" s="93"/>
       <c r="C42" s="94"/>
       <c r="D42" s="95" t="s">
-        <v>274</v>
-      </c>
-      <c r="E42" s="517"/>
+        <v>286</v>
+      </c>
+      <c r="E42" s="347"/>
       <c r="F42" s="183"/>
       <c r="G42" s="183"/>
       <c r="H42" s="183"/>
@@ -13604,22 +13617,22 @@
       <c r="Q42" s="300"/>
       <c r="R42" s="300"/>
       <c r="S42" s="300"/>
-      <c r="T42" s="335"/>
-      <c r="U42" s="343"/>
-      <c r="V42" s="343" t="s">
-        <v>147</v>
-      </c>
-      <c r="W42" s="343"/>
-      <c r="X42" s="343"/>
+      <c r="T42" s="333"/>
+      <c r="U42" s="340"/>
+      <c r="V42" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="W42" s="340"/>
+      <c r="X42" s="340"/>
     </row>
     <row r="43" spans="1:24" ht="13.5" customHeight="1">
       <c r="A43" s="206"/>
       <c r="B43" s="93"/>
       <c r="C43" s="94"/>
       <c r="D43" s="95" t="s">
-        <v>275</v>
-      </c>
-      <c r="E43" s="517"/>
+        <v>273</v>
+      </c>
+      <c r="E43" s="347"/>
       <c r="F43" s="183"/>
       <c r="G43" s="183"/>
       <c r="H43" s="183"/>
@@ -13634,11 +13647,11 @@
       <c r="Q43" s="300"/>
       <c r="R43" s="300"/>
       <c r="S43" s="300"/>
-      <c r="T43" s="335"/>
-      <c r="U43" s="343"/>
-      <c r="V43" s="343"/>
-      <c r="W43" s="343"/>
-      <c r="X43" s="343" t="s">
+      <c r="T43" s="333"/>
+      <c r="U43" s="340"/>
+      <c r="V43" s="340"/>
+      <c r="W43" s="340"/>
+      <c r="X43" s="340" t="s">
         <v>147</v>
       </c>
     </row>
@@ -13647,9 +13660,9 @@
       <c r="B44" s="93"/>
       <c r="C44" s="94"/>
       <c r="D44" s="95" t="s">
-        <v>289</v>
-      </c>
-      <c r="E44" s="517"/>
+        <v>288</v>
+      </c>
+      <c r="E44" s="347"/>
       <c r="F44" s="183"/>
       <c r="G44" s="183"/>
       <c r="H44" s="183"/>
@@ -13664,22 +13677,22 @@
       <c r="Q44" s="300"/>
       <c r="R44" s="300"/>
       <c r="S44" s="300"/>
-      <c r="T44" s="335"/>
-      <c r="U44" s="343"/>
-      <c r="V44" s="343"/>
-      <c r="W44" s="343" t="s">
-        <v>147</v>
-      </c>
-      <c r="X44" s="343"/>
+      <c r="T44" s="333"/>
+      <c r="U44" s="340"/>
+      <c r="V44" s="340"/>
+      <c r="W44" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="X44" s="340"/>
     </row>
     <row r="45" spans="1:24" ht="13.5" customHeight="1">
       <c r="A45" s="206"/>
       <c r="B45" s="93"/>
       <c r="C45" s="94"/>
       <c r="D45" s="95" t="s">
-        <v>276</v>
-      </c>
-      <c r="E45" s="517"/>
+        <v>274</v>
+      </c>
+      <c r="E45" s="347"/>
       <c r="F45" s="183" t="s">
         <v>147</v>
       </c>
@@ -13710,22 +13723,22 @@
         <v>147</v>
       </c>
       <c r="S45" s="300"/>
-      <c r="T45" s="335" t="s">
-        <v>147</v>
-      </c>
-      <c r="U45" s="343"/>
-      <c r="V45" s="343"/>
-      <c r="W45" s="343"/>
-      <c r="X45" s="343"/>
+      <c r="T45" s="333" t="s">
+        <v>147</v>
+      </c>
+      <c r="U45" s="340"/>
+      <c r="V45" s="340"/>
+      <c r="W45" s="340"/>
+      <c r="X45" s="340"/>
     </row>
     <row r="46" spans="1:24" ht="13.5" customHeight="1" thickBot="1">
       <c r="A46" s="206"/>
       <c r="B46" s="93"/>
       <c r="C46" s="94"/>
       <c r="D46" s="95" t="s">
-        <v>278</v>
-      </c>
-      <c r="E46" s="517"/>
+        <v>276</v>
+      </c>
+      <c r="E46" s="347"/>
       <c r="F46" s="183"/>
       <c r="G46" s="183"/>
       <c r="H46" s="183"/>
@@ -13752,20 +13765,20 @@
       <c r="S46" s="300" t="s">
         <v>147</v>
       </c>
-      <c r="T46" s="335"/>
-      <c r="U46" s="343"/>
-      <c r="V46" s="343"/>
-      <c r="W46" s="343"/>
-      <c r="X46" s="343"/>
+      <c r="T46" s="333"/>
+      <c r="U46" s="340"/>
+      <c r="V46" s="340"/>
+      <c r="W46" s="340"/>
+      <c r="X46" s="340"/>
     </row>
     <row r="47" spans="1:24" ht="13.5" customHeight="1">
       <c r="A47" s="210" t="s">
         <v>156</v>
       </c>
-      <c r="B47" s="520" t="s">
+      <c r="B47" s="350" t="s">
         <v>157</v>
       </c>
-      <c r="C47" s="521"/>
+      <c r="C47" s="351"/>
       <c r="D47" s="109"/>
       <c r="E47" s="110"/>
       <c r="F47" s="185"/>
@@ -13782,16 +13795,16 @@
       <c r="Q47" s="299"/>
       <c r="R47" s="299"/>
       <c r="S47" s="299"/>
-      <c r="T47" s="334"/>
-      <c r="U47" s="343"/>
-      <c r="V47" s="343"/>
-      <c r="W47" s="343"/>
-      <c r="X47" s="343"/>
+      <c r="T47" s="332"/>
+      <c r="U47" s="340"/>
+      <c r="V47" s="340"/>
+      <c r="W47" s="340"/>
+      <c r="X47" s="340"/>
     </row>
     <row r="48" spans="1:24" ht="13.5" customHeight="1">
       <c r="A48" s="209"/>
-      <c r="B48" s="522"/>
-      <c r="C48" s="523"/>
+      <c r="B48" s="352"/>
+      <c r="C48" s="353"/>
       <c r="D48" s="114" t="s">
         <v>158</v>
       </c>
@@ -13801,7 +13814,9 @@
       </c>
       <c r="G48" s="183"/>
       <c r="H48" s="183"/>
-      <c r="I48" s="183"/>
+      <c r="I48" s="183" t="s">
+        <v>147</v>
+      </c>
       <c r="J48" s="183" t="s">
         <v>147</v>
       </c>
@@ -13814,22 +13829,20 @@
       <c r="Q48" s="300"/>
       <c r="R48" s="300"/>
       <c r="S48" s="300"/>
-      <c r="T48" s="335"/>
-      <c r="U48" s="343"/>
-      <c r="V48" s="343" t="s">
-        <v>147</v>
-      </c>
-      <c r="W48" s="343" t="s">
-        <v>147</v>
-      </c>
-      <c r="X48" s="343" t="s">
+      <c r="T48" s="333"/>
+      <c r="U48" s="340"/>
+      <c r="V48" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="W48" s="340"/>
+      <c r="X48" s="340" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:24" ht="13.5" customHeight="1">
       <c r="A49" s="209"/>
-      <c r="B49" s="522"/>
-      <c r="C49" s="524"/>
+      <c r="B49" s="352"/>
+      <c r="C49" s="354"/>
       <c r="D49" s="114" t="s">
         <v>159</v>
       </c>
@@ -13841,9 +13854,7 @@
       <c r="H49" s="183" t="s">
         <v>147</v>
       </c>
-      <c r="I49" s="183" t="s">
-        <v>147</v>
-      </c>
+      <c r="I49" s="183"/>
       <c r="J49" s="183"/>
       <c r="K49" s="300" t="s">
         <v>147</v>
@@ -13872,22 +13883,24 @@
       <c r="S49" s="300" t="s">
         <v>147</v>
       </c>
-      <c r="T49" s="335" t="s">
-        <v>147</v>
-      </c>
-      <c r="U49" s="343" t="s">
-        <v>147</v>
-      </c>
-      <c r="V49" s="343"/>
-      <c r="W49" s="343"/>
-      <c r="X49" s="343"/>
+      <c r="T49" s="333" t="s">
+        <v>147</v>
+      </c>
+      <c r="U49" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="V49" s="340"/>
+      <c r="W49" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="X49" s="340"/>
     </row>
     <row r="50" spans="1:24" ht="13.5" customHeight="1">
       <c r="A50" s="209"/>
-      <c r="B50" s="522" t="s">
+      <c r="B50" s="352" t="s">
         <v>160</v>
       </c>
-      <c r="C50" s="524"/>
+      <c r="C50" s="354"/>
       <c r="D50" s="114"/>
       <c r="E50" s="117"/>
       <c r="F50" s="183"/>
@@ -13904,16 +13917,16 @@
       <c r="Q50" s="300"/>
       <c r="R50" s="300"/>
       <c r="S50" s="300"/>
-      <c r="T50" s="335"/>
-      <c r="U50" s="343"/>
-      <c r="V50" s="343"/>
-      <c r="W50" s="343"/>
-      <c r="X50" s="343"/>
+      <c r="T50" s="333"/>
+      <c r="U50" s="340"/>
+      <c r="V50" s="340"/>
+      <c r="W50" s="340"/>
+      <c r="X50" s="340"/>
     </row>
     <row r="51" spans="1:24" ht="13.5" customHeight="1">
       <c r="A51" s="209"/>
-      <c r="B51" s="522"/>
-      <c r="C51" s="524"/>
+      <c r="B51" s="352"/>
+      <c r="C51" s="354"/>
       <c r="D51" s="114"/>
       <c r="E51" s="117"/>
       <c r="F51" s="183"/>
@@ -13930,18 +13943,18 @@
       <c r="Q51" s="300"/>
       <c r="R51" s="300"/>
       <c r="S51" s="300"/>
-      <c r="T51" s="335"/>
-      <c r="U51" s="343"/>
-      <c r="V51" s="343"/>
-      <c r="W51" s="343"/>
-      <c r="X51" s="343"/>
+      <c r="T51" s="333"/>
+      <c r="U51" s="340"/>
+      <c r="V51" s="340"/>
+      <c r="W51" s="340"/>
+      <c r="X51" s="340"/>
     </row>
     <row r="52" spans="1:24" ht="13.5" customHeight="1">
       <c r="A52" s="209"/>
-      <c r="B52" s="522" t="s">
+      <c r="B52" s="352" t="s">
         <v>161</v>
       </c>
-      <c r="C52" s="524"/>
+      <c r="C52" s="354"/>
       <c r="D52" s="114"/>
       <c r="E52" s="117"/>
       <c r="F52" s="183"/>
@@ -13958,18 +13971,18 @@
       <c r="Q52" s="300"/>
       <c r="R52" s="300"/>
       <c r="S52" s="300"/>
-      <c r="T52" s="335"/>
-      <c r="U52" s="343"/>
-      <c r="V52" s="343"/>
-      <c r="W52" s="343"/>
-      <c r="X52" s="343"/>
+      <c r="T52" s="333"/>
+      <c r="U52" s="340"/>
+      <c r="V52" s="340"/>
+      <c r="W52" s="340"/>
+      <c r="X52" s="340"/>
     </row>
     <row r="53" spans="1:24" ht="13.5" customHeight="1">
       <c r="A53" s="209"/>
-      <c r="B53" s="522"/>
-      <c r="C53" s="524"/>
+      <c r="B53" s="352"/>
+      <c r="C53" s="354"/>
       <c r="D53" s="114" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E53" s="117"/>
       <c r="F53" s="183" t="s">
@@ -13977,7 +13990,9 @@
       </c>
       <c r="G53" s="183"/>
       <c r="H53" s="183"/>
-      <c r="I53" s="183"/>
+      <c r="I53" s="183" t="s">
+        <v>147</v>
+      </c>
       <c r="J53" s="183" t="s">
         <v>147</v>
       </c>
@@ -13990,29 +14005,29 @@
       <c r="Q53" s="300"/>
       <c r="R53" s="300"/>
       <c r="S53" s="300"/>
-      <c r="T53" s="335"/>
-      <c r="U53" s="343"/>
-      <c r="V53" s="343" t="s">
-        <v>147</v>
-      </c>
-      <c r="W53" s="343" t="s">
-        <v>147</v>
-      </c>
-      <c r="X53" s="343" t="s">
+      <c r="T53" s="333"/>
+      <c r="U53" s="340"/>
+      <c r="V53" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="W53" s="340"/>
+      <c r="X53" s="340" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:24" ht="13.5" customHeight="1">
       <c r="A54" s="209"/>
-      <c r="B54" s="525"/>
+      <c r="B54" s="355"/>
       <c r="C54" s="297"/>
       <c r="D54" s="201" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E54" s="202"/>
       <c r="F54" s="183"/>
       <c r="G54" s="183"/>
-      <c r="H54" s="183"/>
+      <c r="H54" s="183" t="s">
+        <v>147</v>
+      </c>
       <c r="I54" s="183"/>
       <c r="J54" s="183"/>
       <c r="K54" s="300" t="s">
@@ -14022,9 +14037,7 @@
         <v>147</v>
       </c>
       <c r="M54" s="183"/>
-      <c r="N54" s="300" t="s">
-        <v>147</v>
-      </c>
+      <c r="N54" s="300"/>
       <c r="O54" s="183" t="s">
         <v>147</v>
       </c>
@@ -14032,64 +14045,60 @@
       <c r="Q54" s="300" t="s">
         <v>147</v>
       </c>
-      <c r="R54" s="300"/>
+      <c r="R54" s="300" t="s">
+        <v>147</v>
+      </c>
       <c r="S54" s="300" t="s">
         <v>147</v>
       </c>
-      <c r="T54" s="335"/>
-      <c r="U54" s="343" t="s">
-        <v>147</v>
-      </c>
-      <c r="V54" s="343"/>
-      <c r="W54" s="343"/>
-      <c r="X54" s="343"/>
+      <c r="T54" s="333"/>
+      <c r="U54" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="V54" s="340"/>
+      <c r="W54" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="X54" s="340"/>
     </row>
     <row r="55" spans="1:24" ht="13.5" customHeight="1">
       <c r="A55" s="209"/>
-      <c r="B55" s="526"/>
-      <c r="C55" s="527"/>
+      <c r="B55" s="356"/>
+      <c r="C55" s="357"/>
       <c r="D55" s="293" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E55" s="294"/>
       <c r="F55" s="183"/>
       <c r="G55" s="183"/>
-      <c r="H55" s="183" t="s">
-        <v>147</v>
-      </c>
-      <c r="I55" s="183" t="s">
-        <v>147</v>
-      </c>
+      <c r="H55" s="183"/>
+      <c r="I55" s="183"/>
       <c r="J55" s="183"/>
       <c r="K55" s="300"/>
       <c r="L55" s="300"/>
-      <c r="M55" s="183" t="s">
-        <v>147</v>
-      </c>
-      <c r="N55" s="300"/>
+      <c r="M55" s="183"/>
+      <c r="N55" s="300" t="s">
+        <v>147</v>
+      </c>
       <c r="O55" s="183"/>
       <c r="P55" s="183" t="s">
         <v>147</v>
       </c>
       <c r="Q55" s="300"/>
-      <c r="R55" s="300" t="s">
-        <v>147</v>
-      </c>
+      <c r="R55" s="300"/>
       <c r="S55" s="300"/>
-      <c r="T55" s="335" t="s">
-        <v>147</v>
-      </c>
-      <c r="U55" s="343"/>
-      <c r="V55" s="343"/>
-      <c r="W55" s="343"/>
-      <c r="X55" s="343"/>
+      <c r="T55" s="333"/>
+      <c r="U55" s="340"/>
+      <c r="V55" s="340"/>
+      <c r="W55" s="340"/>
+      <c r="X55" s="340"/>
     </row>
     <row r="56" spans="1:24" ht="13.5" customHeight="1" thickBot="1">
       <c r="A56" s="209"/>
-      <c r="B56" s="526"/>
-      <c r="C56" s="527"/>
+      <c r="B56" s="356"/>
+      <c r="C56" s="357"/>
       <c r="D56" s="293" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E56" s="294"/>
       <c r="F56" s="183"/>
@@ -14110,67 +14119,67 @@
       <c r="Q56" s="300"/>
       <c r="R56" s="300"/>
       <c r="S56" s="300"/>
-      <c r="T56" s="335" t="s">
-        <v>147</v>
-      </c>
-      <c r="U56" s="343"/>
-      <c r="V56" s="343"/>
-      <c r="W56" s="343"/>
-      <c r="X56" s="343"/>
+      <c r="T56" s="333" t="s">
+        <v>147</v>
+      </c>
+      <c r="U56" s="340"/>
+      <c r="V56" s="340"/>
+      <c r="W56" s="340"/>
+      <c r="X56" s="340"/>
     </row>
     <row r="57" spans="1:24" ht="13.5" customHeight="1" thickTop="1">
       <c r="A57" s="210" t="s">
         <v>163</v>
       </c>
-      <c r="B57" s="528" t="s">
+      <c r="B57" s="403" t="s">
         <v>164</v>
       </c>
-      <c r="C57" s="528"/>
-      <c r="D57" s="528"/>
-      <c r="E57" s="529"/>
-      <c r="F57" s="306" t="s">
+      <c r="C57" s="403"/>
+      <c r="D57" s="403"/>
+      <c r="E57" s="358"/>
+      <c r="F57" s="304" t="s">
         <v>108</v>
       </c>
-      <c r="G57" s="306" t="s">
+      <c r="G57" s="304" t="s">
         <v>108</v>
       </c>
-      <c r="H57" s="306" t="s">
+      <c r="H57" s="304" t="s">
         <v>108</v>
       </c>
-      <c r="I57" s="306" t="s">
+      <c r="I57" s="304" t="s">
         <v>108</v>
       </c>
-      <c r="J57" s="306" t="s">
+      <c r="J57" s="304" t="s">
         <v>110</v>
       </c>
-      <c r="K57" s="307" t="s">
+      <c r="K57" s="305" t="s">
         <v>109</v>
       </c>
-      <c r="L57" s="307" t="s">
+      <c r="L57" s="305" t="s">
         <v>109</v>
       </c>
-      <c r="M57" s="306" t="s">
+      <c r="M57" s="304" t="s">
         <v>108</v>
       </c>
-      <c r="N57" s="307" t="s">
+      <c r="N57" s="305" t="s">
         <v>108</v>
       </c>
-      <c r="O57" s="306" t="s">
+      <c r="O57" s="304" t="s">
         <v>108</v>
       </c>
-      <c r="P57" s="306" t="s">
+      <c r="P57" s="304" t="s">
         <v>108</v>
       </c>
-      <c r="Q57" s="307" t="s">
+      <c r="Q57" s="305" t="s">
         <v>110</v>
       </c>
-      <c r="R57" s="307" t="s">
+      <c r="R57" s="305" t="s">
         <v>108</v>
       </c>
-      <c r="S57" s="307" t="s">
+      <c r="S57" s="305" t="s">
         <v>109</v>
       </c>
-      <c r="T57" s="336" t="s">
+      <c r="T57" s="334" t="s">
         <v>108</v>
       </c>
       <c r="U57" s="120" t="s">
@@ -14180,7 +14189,7 @@
         <v>110</v>
       </c>
       <c r="W57" s="120" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="X57" s="120" t="s">
         <v>108</v>
@@ -14188,11 +14197,11 @@
     </row>
     <row r="58" spans="1:24" ht="13.5" customHeight="1">
       <c r="A58" s="209"/>
-      <c r="B58" s="409" t="s">
+      <c r="B58" s="404" t="s">
         <v>165</v>
       </c>
-      <c r="C58" s="409"/>
-      <c r="D58" s="409"/>
+      <c r="C58" s="404"/>
+      <c r="D58" s="404"/>
       <c r="E58" s="119"/>
       <c r="F58" s="187" t="s">
         <v>166</v>
@@ -14236,17 +14245,17 @@
       <c r="S58" s="301" t="s">
         <v>166</v>
       </c>
-      <c r="T58" s="337" t="s">
+      <c r="T58" s="335" t="s">
         <v>166</v>
       </c>
       <c r="U58" s="120" t="s">
         <v>166</v>
       </c>
       <c r="V58" s="120" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="W58" s="120" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="X58" s="120" t="s">
         <v>166</v>
@@ -14260,62 +14269,62 @@
       <c r="C59" s="385"/>
       <c r="D59" s="385"/>
       <c r="E59" s="120"/>
-      <c r="F59" s="121">
-        <v>39139</v>
-      </c>
-      <c r="G59" s="121">
-        <v>39139</v>
-      </c>
-      <c r="H59" s="121">
-        <v>39140</v>
-      </c>
-      <c r="I59" s="121">
-        <v>39141</v>
-      </c>
-      <c r="J59" s="121">
-        <v>39142</v>
-      </c>
-      <c r="K59" s="302">
-        <v>39143</v>
-      </c>
-      <c r="L59" s="302">
-        <v>39144</v>
-      </c>
-      <c r="M59" s="121">
-        <v>39145</v>
-      </c>
-      <c r="N59" s="302">
-        <v>39146</v>
-      </c>
-      <c r="O59" s="121">
-        <v>39147</v>
-      </c>
-      <c r="P59" s="121">
-        <v>39148</v>
-      </c>
-      <c r="Q59" s="302">
-        <v>39149</v>
-      </c>
-      <c r="R59" s="302">
-        <v>39150</v>
-      </c>
-      <c r="S59" s="302">
-        <v>39151</v>
-      </c>
-      <c r="T59" s="338">
-        <v>39152</v>
-      </c>
-      <c r="U59" s="344" t="s">
-        <v>279</v>
-      </c>
-      <c r="V59" s="344" t="s">
-        <v>279</v>
-      </c>
-      <c r="W59" s="344" t="s">
-        <v>279</v>
-      </c>
-      <c r="X59" s="344" t="s">
-        <v>279</v>
+      <c r="F59" s="121" t="s">
+        <v>287</v>
+      </c>
+      <c r="G59" s="121" t="s">
+        <v>287</v>
+      </c>
+      <c r="H59" s="121" t="s">
+        <v>287</v>
+      </c>
+      <c r="I59" s="121" t="s">
+        <v>287</v>
+      </c>
+      <c r="J59" s="121" t="s">
+        <v>287</v>
+      </c>
+      <c r="K59" s="121" t="s">
+        <v>287</v>
+      </c>
+      <c r="L59" s="121" t="s">
+        <v>287</v>
+      </c>
+      <c r="M59" s="121" t="s">
+        <v>287</v>
+      </c>
+      <c r="N59" s="121" t="s">
+        <v>287</v>
+      </c>
+      <c r="O59" s="121" t="s">
+        <v>287</v>
+      </c>
+      <c r="P59" s="121" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q59" s="121" t="s">
+        <v>287</v>
+      </c>
+      <c r="R59" s="121" t="s">
+        <v>287</v>
+      </c>
+      <c r="S59" s="121" t="s">
+        <v>287</v>
+      </c>
+      <c r="T59" s="121" t="s">
+        <v>287</v>
+      </c>
+      <c r="U59" s="341" t="s">
+        <v>277</v>
+      </c>
+      <c r="V59" s="341" t="s">
+        <v>277</v>
+      </c>
+      <c r="W59" s="341" t="s">
+        <v>277</v>
+      </c>
+      <c r="X59" s="341" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="60" spans="1:24" ht="71.5" thickBot="1">
@@ -14331,34 +14340,48 @@
       <c r="H60" s="208"/>
       <c r="I60" s="208"/>
       <c r="J60" s="208"/>
-      <c r="K60" s="303" t="s">
+      <c r="K60" s="302" t="s">
         <v>169</v>
       </c>
-      <c r="L60" s="303" t="s">
+      <c r="L60" s="302" t="s">
         <v>170</v>
       </c>
       <c r="M60" s="208"/>
-      <c r="N60" s="303"/>
+      <c r="N60" s="302"/>
       <c r="O60" s="208"/>
       <c r="P60" s="208"/>
-      <c r="Q60" s="303"/>
-      <c r="R60" s="303"/>
-      <c r="S60" s="303" t="s">
+      <c r="Q60" s="302"/>
+      <c r="R60" s="302"/>
+      <c r="S60" s="302" t="s">
         <v>171</v>
       </c>
-      <c r="T60" s="339"/>
-      <c r="U60" s="344" t="s">
+      <c r="T60" s="336"/>
+      <c r="U60" s="341" t="s">
         <v>218</v>
       </c>
-      <c r="V60" s="344"/>
-      <c r="W60" s="344"/>
-      <c r="X60" s="344"/>
+      <c r="V60" s="341"/>
+      <c r="W60" s="341" t="s">
+        <v>289</v>
+      </c>
+      <c r="X60" s="341"/>
     </row>
     <row r="61" spans="1:24" ht="10.5" thickTop="1">
-      <c r="A61" s="530"/>
+      <c r="A61" s="359"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:T5"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="O6:T6"/>
     <mergeCell ref="B59:D59"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="A2:B2"/>
@@ -14375,33 +14398,21 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="F4:K4"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F57:T57" xr:uid="{E224D4A9-100B-4E86-A014-171B06698C83}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F57:T57" xr:uid="{0AB8D3F0-5C50-410D-BF22-75797AB8973C}">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F58:T58" xr:uid="{7960E485-DD94-414A-84C0-0B18A429395A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F58:T58" xr:uid="{991B64FC-7C71-460D-BE0C-08A05A25FA02}">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:T56" xr:uid="{B06C1ED7-795A-483D-B478-98F816598A4D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:T56" xr:uid="{05C0C682-D789-4FC0-ABC2-1DDA602D0A12}">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D19" r:id="rId1" xr:uid="{104EC6B0-17D8-4CDE-A7D5-C8DE1B102860}"/>
+    <hyperlink ref="D19" r:id="rId1" xr:uid="{03A72958-5FFC-4BBF-BF9A-F3A8E86343A7}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -14440,58 +14451,58 @@
       <c r="D1" s="192"/>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1">
-      <c r="A2" s="418" t="s">
+      <c r="A2" s="433" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="419"/>
-      <c r="C2" s="421" t="str">
+      <c r="B2" s="434"/>
+      <c r="C2" s="436" t="str">
         <f>FunctionList!E12</f>
         <v>Function2</v>
       </c>
-      <c r="D2" s="423"/>
+      <c r="D2" s="438"/>
       <c r="E2" s="193"/>
-      <c r="F2" s="419" t="s">
+      <c r="F2" s="434" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="419"/>
-      <c r="H2" s="419"/>
-      <c r="I2" s="419"/>
-      <c r="J2" s="419"/>
-      <c r="K2" s="419"/>
-      <c r="L2" s="421" t="str">
+      <c r="G2" s="434"/>
+      <c r="H2" s="434"/>
+      <c r="I2" s="434"/>
+      <c r="J2" s="434"/>
+      <c r="K2" s="434"/>
+      <c r="L2" s="436" t="str">
         <f>FunctionList!D12</f>
         <v>Đăng nhập</v>
       </c>
-      <c r="M2" s="421"/>
-      <c r="N2" s="421"/>
-      <c r="O2" s="421"/>
-      <c r="P2" s="421"/>
-      <c r="Q2" s="421"/>
-      <c r="R2" s="421"/>
-      <c r="S2" s="421"/>
-      <c r="T2" s="422"/>
+      <c r="M2" s="436"/>
+      <c r="N2" s="436"/>
+      <c r="O2" s="436"/>
+      <c r="P2" s="436"/>
+      <c r="Q2" s="436"/>
+      <c r="R2" s="436"/>
+      <c r="S2" s="436"/>
+      <c r="T2" s="437"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="416" t="s">
+      <c r="A3" s="446" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="417"/>
-      <c r="C3" s="388" t="s">
+      <c r="B3" s="447"/>
+      <c r="C3" s="405" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="374"/>
-      <c r="E3" s="389"/>
-      <c r="F3" s="425" t="s">
+      <c r="D3" s="406"/>
+      <c r="E3" s="407"/>
+      <c r="F3" s="440" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="426"/>
-      <c r="H3" s="426"/>
-      <c r="I3" s="426"/>
-      <c r="J3" s="426"/>
-      <c r="K3" s="427"/>
-      <c r="L3" s="374"/>
-      <c r="M3" s="374"/>
-      <c r="N3" s="374"/>
+      <c r="G3" s="441"/>
+      <c r="H3" s="441"/>
+      <c r="I3" s="441"/>
+      <c r="J3" s="441"/>
+      <c r="K3" s="442"/>
+      <c r="L3" s="406"/>
+      <c r="M3" s="406"/>
+      <c r="N3" s="406"/>
       <c r="O3" s="188"/>
       <c r="P3" s="188"/>
       <c r="Q3" s="188"/>
@@ -14500,117 +14511,117 @@
       <c r="T3" s="265"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="393" t="s">
+      <c r="A4" s="399" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="394"/>
-      <c r="C4" s="414">
+      <c r="B4" s="400"/>
+      <c r="C4" s="401">
         <v>300</v>
       </c>
-      <c r="D4" s="415"/>
+      <c r="D4" s="402"/>
       <c r="E4" s="198"/>
-      <c r="F4" s="378" t="s">
+      <c r="F4" s="423" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="379"/>
-      <c r="H4" s="379"/>
-      <c r="I4" s="379"/>
-      <c r="J4" s="379"/>
-      <c r="K4" s="380"/>
-      <c r="L4" s="381">
+      <c r="G4" s="424"/>
+      <c r="H4" s="424"/>
+      <c r="I4" s="424"/>
+      <c r="J4" s="424"/>
+      <c r="K4" s="425"/>
+      <c r="L4" s="426">
         <f xml:space="preserve"> IF(FunctionList!E6&lt;&gt;"N/A",SUM(C4*FunctionList!E6/1000,- O7),"N/A")</f>
         <v>15</v>
       </c>
-      <c r="M4" s="382"/>
-      <c r="N4" s="382"/>
-      <c r="O4" s="382"/>
-      <c r="P4" s="382"/>
-      <c r="Q4" s="382"/>
-      <c r="R4" s="382"/>
-      <c r="S4" s="382"/>
-      <c r="T4" s="428"/>
+      <c r="M4" s="427"/>
+      <c r="N4" s="427"/>
+      <c r="O4" s="427"/>
+      <c r="P4" s="427"/>
+      <c r="Q4" s="427"/>
+      <c r="R4" s="427"/>
+      <c r="S4" s="427"/>
+      <c r="T4" s="443"/>
       <c r="V4" s="87"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="393" t="s">
+      <c r="A5" s="399" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="394"/>
-      <c r="C5" s="395" t="s">
+      <c r="B5" s="400"/>
+      <c r="C5" s="411" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="395"/>
-      <c r="E5" s="395"/>
-      <c r="F5" s="396"/>
-      <c r="G5" s="396"/>
-      <c r="H5" s="396"/>
-      <c r="I5" s="396"/>
-      <c r="J5" s="396"/>
-      <c r="K5" s="396"/>
-      <c r="L5" s="395"/>
-      <c r="M5" s="395"/>
-      <c r="N5" s="395"/>
-      <c r="O5" s="395"/>
-      <c r="P5" s="395"/>
-      <c r="Q5" s="395"/>
-      <c r="R5" s="395"/>
-      <c r="S5" s="395"/>
-      <c r="T5" s="429"/>
+      <c r="D5" s="411"/>
+      <c r="E5" s="411"/>
+      <c r="F5" s="412"/>
+      <c r="G5" s="412"/>
+      <c r="H5" s="412"/>
+      <c r="I5" s="412"/>
+      <c r="J5" s="412"/>
+      <c r="K5" s="412"/>
+      <c r="L5" s="411"/>
+      <c r="M5" s="411"/>
+      <c r="N5" s="411"/>
+      <c r="O5" s="411"/>
+      <c r="P5" s="411"/>
+      <c r="Q5" s="411"/>
+      <c r="R5" s="411"/>
+      <c r="S5" s="411"/>
+      <c r="T5" s="444"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="391" t="s">
+      <c r="A6" s="409" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="392"/>
-      <c r="C6" s="375" t="s">
+      <c r="B6" s="410"/>
+      <c r="C6" s="421" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="376"/>
-      <c r="E6" s="377"/>
-      <c r="F6" s="375" t="s">
+      <c r="D6" s="413"/>
+      <c r="E6" s="422"/>
+      <c r="F6" s="421" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="376"/>
-      <c r="H6" s="376"/>
-      <c r="I6" s="376"/>
-      <c r="J6" s="376"/>
-      <c r="K6" s="384"/>
-      <c r="L6" s="376" t="s">
+      <c r="G6" s="413"/>
+      <c r="H6" s="413"/>
+      <c r="I6" s="413"/>
+      <c r="J6" s="413"/>
+      <c r="K6" s="429"/>
+      <c r="L6" s="413" t="s">
         <v>127</v>
       </c>
-      <c r="M6" s="376"/>
-      <c r="N6" s="376"/>
-      <c r="O6" s="400" t="s">
+      <c r="M6" s="413"/>
+      <c r="N6" s="413"/>
+      <c r="O6" s="416" t="s">
         <v>111</v>
       </c>
-      <c r="P6" s="376"/>
-      <c r="Q6" s="376"/>
-      <c r="R6" s="376"/>
-      <c r="S6" s="376"/>
-      <c r="T6" s="424"/>
+      <c r="P6" s="413"/>
+      <c r="Q6" s="413"/>
+      <c r="R6" s="413"/>
+      <c r="S6" s="413"/>
+      <c r="T6" s="439"/>
       <c r="V6" s="87"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A7" s="413">
+      <c r="A7" s="398">
         <f>COUNTIF(F42:HQ42,"P")</f>
         <v>15</v>
       </c>
-      <c r="B7" s="412"/>
-      <c r="C7" s="410">
+      <c r="B7" s="397"/>
+      <c r="C7" s="394">
         <f>COUNTIF(F42:HQ42,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="398"/>
-      <c r="E7" s="412"/>
-      <c r="F7" s="410">
+      <c r="D7" s="395"/>
+      <c r="E7" s="397"/>
+      <c r="F7" s="394">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="398"/>
-      <c r="H7" s="398"/>
-      <c r="I7" s="398"/>
-      <c r="J7" s="398"/>
-      <c r="K7" s="411"/>
+      <c r="G7" s="395"/>
+      <c r="H7" s="395"/>
+      <c r="I7" s="395"/>
+      <c r="J7" s="395"/>
+      <c r="K7" s="396"/>
       <c r="L7" s="190">
         <f>COUNTIF(E41:HQ41,"N")</f>
         <v>10</v>
@@ -14623,15 +14634,15 @@
         <f>COUNTIF(E41:HQ41,"B")</f>
         <v>2</v>
       </c>
-      <c r="O7" s="397">
+      <c r="O7" s="414">
         <f>COUNTA(E9:HT9)</f>
         <v>15</v>
       </c>
-      <c r="P7" s="398"/>
-      <c r="Q7" s="398"/>
-      <c r="R7" s="398"/>
-      <c r="S7" s="398"/>
-      <c r="T7" s="420"/>
+      <c r="P7" s="395"/>
+      <c r="Q7" s="395"/>
+      <c r="R7" s="395"/>
+      <c r="S7" s="395"/>
+      <c r="T7" s="435"/>
       <c r="U7" s="92"/>
     </row>
     <row r="8" spans="1:23" ht="10"/>
@@ -14928,10 +14939,10 @@
       <c r="A19" s="206"/>
       <c r="B19" s="93"/>
       <c r="C19" s="94"/>
-      <c r="D19" s="390" t="s">
+      <c r="D19" s="448" t="s">
         <v>265</v>
       </c>
-      <c r="E19" s="390"/>
+      <c r="E19" s="448"/>
       <c r="F19" s="97"/>
       <c r="G19" s="97"/>
       <c r="H19" s="97"/>
@@ -15560,12 +15571,12 @@
       <c r="A41" s="210" t="s">
         <v>163</v>
       </c>
-      <c r="B41" s="387" t="s">
+      <c r="B41" s="445" t="s">
         <v>164</v>
       </c>
-      <c r="C41" s="387"/>
-      <c r="D41" s="387"/>
-      <c r="E41" s="332"/>
+      <c r="C41" s="445"/>
+      <c r="D41" s="445"/>
+      <c r="E41" s="330"/>
       <c r="F41" s="216" t="s">
         <v>108</v>
       </c>
@@ -15614,11 +15625,11 @@
     </row>
     <row r="42" spans="1:20" ht="13.5" customHeight="1">
       <c r="A42" s="209"/>
-      <c r="B42" s="409" t="s">
+      <c r="B42" s="404" t="s">
         <v>165</v>
       </c>
-      <c r="C42" s="409"/>
-      <c r="D42" s="409"/>
+      <c r="C42" s="404"/>
+      <c r="D42" s="404"/>
       <c r="E42" s="119"/>
       <c r="F42" s="118" t="s">
         <v>166</v>
@@ -15758,6 +15769,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="O7:T7"/>
     <mergeCell ref="F2:K2"/>
@@ -15774,18 +15797,6 @@
     <mergeCell ref="F7:K7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C5:T5"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <dataValidations count="3">
@@ -15837,176 +15848,176 @@
       <c r="B1" s="194"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="418" t="s">
+      <c r="A2" s="433" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="418"/>
-      <c r="C2" s="421" t="str">
+      <c r="B2" s="433"/>
+      <c r="C2" s="436" t="str">
         <f>FunctionList!E13</f>
         <v>Function3</v>
       </c>
-      <c r="D2" s="421"/>
-      <c r="F2" s="419" t="s">
+      <c r="D2" s="436"/>
+      <c r="F2" s="434" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="419"/>
-      <c r="H2" s="419"/>
-      <c r="I2" s="419"/>
-      <c r="J2" s="419"/>
-      <c r="K2" s="419"/>
-      <c r="L2" s="446" t="str">
+      <c r="G2" s="434"/>
+      <c r="H2" s="434"/>
+      <c r="I2" s="434"/>
+      <c r="J2" s="434"/>
+      <c r="K2" s="434"/>
+      <c r="L2" s="449" t="str">
         <f>FunctionList!D13</f>
         <v>Đổi thông tin tài khoản</v>
       </c>
-      <c r="M2" s="446"/>
-      <c r="N2" s="446"/>
-      <c r="O2" s="446"/>
-      <c r="P2" s="446"/>
-      <c r="Q2" s="446"/>
-      <c r="R2" s="446"/>
-      <c r="S2" s="446"/>
-      <c r="T2" s="447"/>
+      <c r="M2" s="449"/>
+      <c r="N2" s="449"/>
+      <c r="O2" s="449"/>
+      <c r="P2" s="449"/>
+      <c r="Q2" s="449"/>
+      <c r="R2" s="449"/>
+      <c r="S2" s="449"/>
+      <c r="T2" s="450"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="434" t="s">
+      <c r="A3" s="463" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="434"/>
-      <c r="C3" s="432" t="s">
+      <c r="B3" s="463"/>
+      <c r="C3" s="466" t="s">
         <v>194</v>
       </c>
-      <c r="D3" s="432"/>
-      <c r="E3" s="432"/>
-      <c r="F3" s="445" t="s">
+      <c r="D3" s="466"/>
+      <c r="E3" s="466"/>
+      <c r="F3" s="452" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="445"/>
-      <c r="H3" s="445"/>
-      <c r="I3" s="445"/>
-      <c r="J3" s="445"/>
-      <c r="K3" s="445"/>
-      <c r="L3" s="450"/>
-      <c r="M3" s="450"/>
-      <c r="N3" s="450"/>
+      <c r="G3" s="452"/>
+      <c r="H3" s="452"/>
+      <c r="I3" s="452"/>
+      <c r="J3" s="452"/>
+      <c r="K3" s="452"/>
+      <c r="L3" s="455"/>
+      <c r="M3" s="455"/>
+      <c r="N3" s="455"/>
       <c r="O3" s="228"/>
       <c r="P3" s="228"/>
       <c r="Q3" s="228"/>
       <c r="R3" s="228"/>
       <c r="S3" s="228"/>
-      <c r="T3" s="317"/>
+      <c r="T3" s="315"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="434" t="s">
+      <c r="A4" s="463" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="434"/>
-      <c r="C4" s="453">
+      <c r="B4" s="463"/>
+      <c r="C4" s="458">
         <v>300</v>
       </c>
-      <c r="D4" s="453"/>
+      <c r="D4" s="458"/>
       <c r="E4" s="230"/>
-      <c r="F4" s="445" t="s">
+      <c r="F4" s="452" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="445"/>
-      <c r="H4" s="445"/>
-      <c r="I4" s="445"/>
-      <c r="J4" s="445"/>
-      <c r="K4" s="445"/>
-      <c r="L4" s="451">
+      <c r="G4" s="452"/>
+      <c r="H4" s="452"/>
+      <c r="I4" s="452"/>
+      <c r="J4" s="452"/>
+      <c r="K4" s="452"/>
+      <c r="L4" s="456">
         <f xml:space="preserve"> IF(FunctionList!E6&lt;&gt;"N/A",SUM(C4*FunctionList!E6/1000,- O7),"N/A")</f>
         <v>20</v>
       </c>
-      <c r="M4" s="451"/>
-      <c r="N4" s="451"/>
-      <c r="O4" s="451"/>
-      <c r="P4" s="451"/>
-      <c r="Q4" s="451"/>
-      <c r="R4" s="451"/>
-      <c r="S4" s="451"/>
-      <c r="T4" s="452"/>
+      <c r="M4" s="456"/>
+      <c r="N4" s="456"/>
+      <c r="O4" s="456"/>
+      <c r="P4" s="456"/>
+      <c r="Q4" s="456"/>
+      <c r="R4" s="456"/>
+      <c r="S4" s="456"/>
+      <c r="T4" s="457"/>
       <c r="V4" s="124"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="434" t="s">
+      <c r="A5" s="463" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="434"/>
-      <c r="C5" s="435" t="s">
+      <c r="B5" s="463"/>
+      <c r="C5" s="468" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="435"/>
-      <c r="E5" s="435"/>
-      <c r="F5" s="435"/>
-      <c r="G5" s="435"/>
-      <c r="H5" s="435"/>
-      <c r="I5" s="435"/>
-      <c r="J5" s="435"/>
-      <c r="K5" s="435"/>
-      <c r="L5" s="435"/>
-      <c r="M5" s="435"/>
-      <c r="N5" s="435"/>
-      <c r="O5" s="435"/>
-      <c r="P5" s="435"/>
-      <c r="Q5" s="435"/>
-      <c r="R5" s="435"/>
-      <c r="S5" s="435"/>
-      <c r="T5" s="436"/>
+      <c r="D5" s="468"/>
+      <c r="E5" s="468"/>
+      <c r="F5" s="468"/>
+      <c r="G5" s="468"/>
+      <c r="H5" s="468"/>
+      <c r="I5" s="468"/>
+      <c r="J5" s="468"/>
+      <c r="K5" s="468"/>
+      <c r="L5" s="468"/>
+      <c r="M5" s="468"/>
+      <c r="N5" s="468"/>
+      <c r="O5" s="468"/>
+      <c r="P5" s="468"/>
+      <c r="Q5" s="468"/>
+      <c r="R5" s="468"/>
+      <c r="S5" s="468"/>
+      <c r="T5" s="469"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A6" s="433" t="s">
+      <c r="A6" s="467" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="433"/>
-      <c r="C6" s="444" t="s">
+      <c r="B6" s="467"/>
+      <c r="C6" s="451" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="444"/>
-      <c r="E6" s="444"/>
-      <c r="F6" s="444" t="s">
+      <c r="D6" s="451"/>
+      <c r="E6" s="451"/>
+      <c r="F6" s="451" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="444"/>
-      <c r="H6" s="444"/>
-      <c r="I6" s="444"/>
-      <c r="J6" s="444"/>
-      <c r="K6" s="444"/>
-      <c r="L6" s="437" t="s">
+      <c r="G6" s="451"/>
+      <c r="H6" s="451"/>
+      <c r="I6" s="451"/>
+      <c r="J6" s="451"/>
+      <c r="K6" s="451"/>
+      <c r="L6" s="470" t="s">
         <v>127</v>
       </c>
-      <c r="M6" s="437"/>
-      <c r="N6" s="437"/>
-      <c r="O6" s="448" t="s">
+      <c r="M6" s="470"/>
+      <c r="N6" s="470"/>
+      <c r="O6" s="453" t="s">
         <v>111</v>
       </c>
-      <c r="P6" s="448"/>
-      <c r="Q6" s="448"/>
-      <c r="R6" s="448"/>
-      <c r="S6" s="448"/>
-      <c r="T6" s="449"/>
+      <c r="P6" s="453"/>
+      <c r="Q6" s="453"/>
+      <c r="R6" s="453"/>
+      <c r="S6" s="453"/>
+      <c r="T6" s="454"/>
       <c r="V6" s="124"/>
     </row>
     <row r="7" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="443">
+      <c r="A7" s="462">
         <f>COUNTIF(F32:HL32,"P")</f>
         <v>10</v>
       </c>
-      <c r="B7" s="443"/>
-      <c r="C7" s="440">
+      <c r="B7" s="462"/>
+      <c r="C7" s="461">
         <f>COUNTIF(F32:HL32,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="440"/>
-      <c r="E7" s="440"/>
-      <c r="F7" s="440">
+      <c r="D7" s="461"/>
+      <c r="E7" s="461"/>
+      <c r="F7" s="461">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="440"/>
-      <c r="H7" s="440"/>
-      <c r="I7" s="440"/>
-      <c r="J7" s="440"/>
-      <c r="K7" s="440"/>
+      <c r="G7" s="461"/>
+      <c r="H7" s="461"/>
+      <c r="I7" s="461"/>
+      <c r="J7" s="461"/>
+      <c r="K7" s="461"/>
       <c r="L7" s="231">
         <f>COUNTIF(E31:HL31,"N")</f>
         <v>6</v>
@@ -16019,15 +16030,15 @@
         <f>COUNTIF(E31:HL31,"B")</f>
         <v>4</v>
       </c>
-      <c r="O7" s="438">
+      <c r="O7" s="471">
         <f>COUNTA(E9:HO9)</f>
         <v>10</v>
       </c>
-      <c r="P7" s="438"/>
-      <c r="Q7" s="438"/>
-      <c r="R7" s="438"/>
-      <c r="S7" s="438"/>
-      <c r="T7" s="439"/>
+      <c r="P7" s="471"/>
+      <c r="Q7" s="471"/>
+      <c r="R7" s="471"/>
+      <c r="S7" s="471"/>
+      <c r="T7" s="472"/>
       <c r="U7" s="129"/>
     </row>
     <row r="8" spans="1:22" ht="10.5" thickBot="1"/>
@@ -16556,12 +16567,12 @@
       <c r="A31" s="245" t="s">
         <v>163</v>
       </c>
-      <c r="B31" s="431" t="s">
+      <c r="B31" s="465" t="s">
         <v>164</v>
       </c>
-      <c r="C31" s="431"/>
-      <c r="D31" s="431"/>
-      <c r="E31" s="333"/>
+      <c r="C31" s="465"/>
+      <c r="D31" s="465"/>
+      <c r="E31" s="331"/>
       <c r="F31" s="237" t="s">
         <v>108</v>
       </c>
@@ -16595,11 +16606,11 @@
     </row>
     <row r="32" spans="1:16" ht="13.5" customHeight="1">
       <c r="A32" s="247"/>
-      <c r="B32" s="441" t="s">
+      <c r="B32" s="459" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="441"/>
-      <c r="D32" s="441"/>
+      <c r="C32" s="459"/>
+      <c r="D32" s="459"/>
       <c r="E32" s="156"/>
       <c r="F32" s="155" t="s">
         <v>166</v>
@@ -16634,11 +16645,11 @@
     </row>
     <row r="33" spans="1:15" ht="13.5" customHeight="1">
       <c r="A33" s="247"/>
-      <c r="B33" s="442" t="s">
+      <c r="B33" s="460" t="s">
         <v>167</v>
       </c>
-      <c r="C33" s="442"/>
-      <c r="D33" s="442"/>
+      <c r="C33" s="460"/>
+      <c r="D33" s="460"/>
       <c r="E33" s="157"/>
       <c r="F33" s="158">
         <v>39139</v>
@@ -16673,11 +16684,11 @@
     </row>
     <row r="34" spans="1:15" ht="10.5" thickBot="1">
       <c r="A34" s="248"/>
-      <c r="B34" s="430" t="s">
+      <c r="B34" s="464" t="s">
         <v>168</v>
       </c>
-      <c r="C34" s="430"/>
-      <c r="D34" s="430"/>
+      <c r="C34" s="464"/>
+      <c r="D34" s="464"/>
       <c r="E34" s="249"/>
       <c r="F34" s="250"/>
       <c r="G34" s="250"/>
@@ -16698,14 +16709,15 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:T5"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="F7:K7"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="F2:K2"/>
     <mergeCell ref="B32:D32"/>
@@ -16716,15 +16728,14 @@
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <dataValidations count="3">
@@ -16751,7 +16762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
@@ -16776,55 +16787,55 @@
       <c r="B1" s="194"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="418" t="s">
+      <c r="A2" s="433" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="419"/>
-      <c r="C2" s="421" t="s">
+      <c r="B2" s="434"/>
+      <c r="C2" s="436" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="423"/>
-      <c r="F2" s="419" t="s">
+      <c r="D2" s="438"/>
+      <c r="F2" s="434" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="419"/>
-      <c r="H2" s="419"/>
-      <c r="I2" s="419"/>
-      <c r="J2" s="419"/>
-      <c r="K2" s="419"/>
-      <c r="L2" s="446" t="s">
+      <c r="G2" s="434"/>
+      <c r="H2" s="434"/>
+      <c r="I2" s="434"/>
+      <c r="J2" s="434"/>
+      <c r="K2" s="434"/>
+      <c r="L2" s="449" t="s">
         <v>87</v>
       </c>
-      <c r="M2" s="454"/>
-      <c r="N2" s="454"/>
-      <c r="O2" s="454"/>
-      <c r="P2" s="454"/>
-      <c r="Q2" s="454"/>
-      <c r="R2" s="454"/>
-      <c r="S2" s="454"/>
-      <c r="T2" s="455"/>
+      <c r="M2" s="500"/>
+      <c r="N2" s="500"/>
+      <c r="O2" s="500"/>
+      <c r="P2" s="500"/>
+      <c r="Q2" s="500"/>
+      <c r="R2" s="500"/>
+      <c r="S2" s="500"/>
+      <c r="T2" s="501"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="434" t="s">
+      <c r="A3" s="463" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="456"/>
-      <c r="C3" s="432" t="s">
+      <c r="B3" s="493"/>
+      <c r="C3" s="466" t="s">
         <v>194</v>
       </c>
-      <c r="D3" s="450"/>
-      <c r="E3" s="457"/>
-      <c r="F3" s="445" t="s">
+      <c r="D3" s="455"/>
+      <c r="E3" s="502"/>
+      <c r="F3" s="452" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="458"/>
-      <c r="H3" s="458"/>
-      <c r="I3" s="458"/>
-      <c r="J3" s="458"/>
-      <c r="K3" s="459"/>
-      <c r="L3" s="450"/>
-      <c r="M3" s="450"/>
-      <c r="N3" s="450"/>
+      <c r="G3" s="495"/>
+      <c r="H3" s="495"/>
+      <c r="I3" s="495"/>
+      <c r="J3" s="495"/>
+      <c r="K3" s="496"/>
+      <c r="L3" s="455"/>
+      <c r="M3" s="455"/>
+      <c r="N3" s="455"/>
       <c r="O3" s="228"/>
       <c r="P3" s="228"/>
       <c r="Q3" s="228"/>
@@ -16833,117 +16844,117 @@
       <c r="T3" s="229"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="434" t="s">
+      <c r="A4" s="463" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="456"/>
-      <c r="C4" s="453">
+      <c r="B4" s="493"/>
+      <c r="C4" s="458">
         <v>300</v>
       </c>
-      <c r="D4" s="460"/>
+      <c r="D4" s="494"/>
       <c r="E4" s="230"/>
-      <c r="F4" s="445" t="s">
+      <c r="F4" s="452" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="458"/>
-      <c r="H4" s="458"/>
-      <c r="I4" s="458"/>
-      <c r="J4" s="458"/>
-      <c r="K4" s="459"/>
-      <c r="L4" s="451">
+      <c r="G4" s="495"/>
+      <c r="H4" s="495"/>
+      <c r="I4" s="495"/>
+      <c r="J4" s="495"/>
+      <c r="K4" s="496"/>
+      <c r="L4" s="456">
         <f xml:space="preserve"> IF(FunctionList!E6&lt;&gt;"N/A",SUM(C4*FunctionList!E6/1000,- O7),"N/A")</f>
         <v>18</v>
       </c>
-      <c r="M4" s="461"/>
-      <c r="N4" s="461"/>
-      <c r="O4" s="461"/>
-      <c r="P4" s="461"/>
-      <c r="Q4" s="461"/>
-      <c r="R4" s="461"/>
-      <c r="S4" s="461"/>
-      <c r="T4" s="462"/>
+      <c r="M4" s="497"/>
+      <c r="N4" s="497"/>
+      <c r="O4" s="497"/>
+      <c r="P4" s="497"/>
+      <c r="Q4" s="497"/>
+      <c r="R4" s="497"/>
+      <c r="S4" s="497"/>
+      <c r="T4" s="498"/>
       <c r="V4" s="124"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="434" t="s">
+      <c r="A5" s="463" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="456"/>
-      <c r="C5" s="435" t="s">
+      <c r="B5" s="493"/>
+      <c r="C5" s="468" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="435"/>
-      <c r="E5" s="435"/>
-      <c r="F5" s="463"/>
-      <c r="G5" s="463"/>
-      <c r="H5" s="463"/>
-      <c r="I5" s="463"/>
-      <c r="J5" s="463"/>
-      <c r="K5" s="463"/>
-      <c r="L5" s="435"/>
-      <c r="M5" s="435"/>
-      <c r="N5" s="435"/>
-      <c r="O5" s="435"/>
-      <c r="P5" s="435"/>
-      <c r="Q5" s="435"/>
-      <c r="R5" s="435"/>
-      <c r="S5" s="435"/>
-      <c r="T5" s="435"/>
+      <c r="D5" s="468"/>
+      <c r="E5" s="468"/>
+      <c r="F5" s="499"/>
+      <c r="G5" s="499"/>
+      <c r="H5" s="499"/>
+      <c r="I5" s="499"/>
+      <c r="J5" s="499"/>
+      <c r="K5" s="499"/>
+      <c r="L5" s="468"/>
+      <c r="M5" s="468"/>
+      <c r="N5" s="468"/>
+      <c r="O5" s="468"/>
+      <c r="P5" s="468"/>
+      <c r="Q5" s="468"/>
+      <c r="R5" s="468"/>
+      <c r="S5" s="468"/>
+      <c r="T5" s="468"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A6" s="433" t="s">
+      <c r="A6" s="467" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="469"/>
-      <c r="C6" s="444" t="s">
+      <c r="B6" s="491"/>
+      <c r="C6" s="451" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="437"/>
-      <c r="E6" s="470"/>
-      <c r="F6" s="444" t="s">
+      <c r="D6" s="470"/>
+      <c r="E6" s="492"/>
+      <c r="F6" s="451" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="437"/>
-      <c r="H6" s="437"/>
-      <c r="I6" s="437"/>
-      <c r="J6" s="437"/>
-      <c r="K6" s="483"/>
-      <c r="L6" s="437" t="s">
+      <c r="G6" s="470"/>
+      <c r="H6" s="470"/>
+      <c r="I6" s="470"/>
+      <c r="J6" s="470"/>
+      <c r="K6" s="485"/>
+      <c r="L6" s="470" t="s">
         <v>127</v>
       </c>
-      <c r="M6" s="437"/>
-      <c r="N6" s="437"/>
-      <c r="O6" s="448" t="s">
+      <c r="M6" s="470"/>
+      <c r="N6" s="470"/>
+      <c r="O6" s="453" t="s">
         <v>111</v>
       </c>
-      <c r="P6" s="437"/>
-      <c r="Q6" s="437"/>
-      <c r="R6" s="437"/>
-      <c r="S6" s="437"/>
-      <c r="T6" s="464"/>
+      <c r="P6" s="470"/>
+      <c r="Q6" s="470"/>
+      <c r="R6" s="470"/>
+      <c r="S6" s="470"/>
+      <c r="T6" s="486"/>
       <c r="V6" s="124"/>
     </row>
     <row r="7" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="443">
+      <c r="A7" s="462">
         <f>COUNTIF(F46:HN46,"P")</f>
         <v>12</v>
       </c>
-      <c r="B7" s="465"/>
-      <c r="C7" s="440">
+      <c r="B7" s="487"/>
+      <c r="C7" s="461">
         <f>COUNTIF(F46:HN46,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="466"/>
-      <c r="E7" s="465"/>
-      <c r="F7" s="440">
+      <c r="D7" s="488"/>
+      <c r="E7" s="487"/>
+      <c r="F7" s="461">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="466"/>
-      <c r="H7" s="466"/>
-      <c r="I7" s="466"/>
-      <c r="J7" s="466"/>
-      <c r="K7" s="467"/>
+      <c r="G7" s="488"/>
+      <c r="H7" s="488"/>
+      <c r="I7" s="488"/>
+      <c r="J7" s="488"/>
+      <c r="K7" s="489"/>
       <c r="L7" s="231">
         <f>COUNTIF(E45:HN45,"N")</f>
         <v>6</v>
@@ -16956,15 +16967,15 @@
         <f>COUNTIF(E45:HN45,"B")</f>
         <v>2</v>
       </c>
-      <c r="O7" s="438">
+      <c r="O7" s="471">
         <f>COUNTA(E9:HQ9)</f>
         <v>12</v>
       </c>
-      <c r="P7" s="466"/>
-      <c r="Q7" s="466"/>
-      <c r="R7" s="466"/>
-      <c r="S7" s="466"/>
-      <c r="T7" s="468"/>
+      <c r="P7" s="488"/>
+      <c r="Q7" s="488"/>
+      <c r="R7" s="488"/>
+      <c r="S7" s="488"/>
+      <c r="T7" s="490"/>
       <c r="U7" s="125"/>
     </row>
     <row r="8" spans="1:22" ht="10.5" thickBot="1"/>
@@ -17186,7 +17197,7 @@
       <c r="Q16" s="263" t="s">
         <v>147</v>
       </c>
-      <c r="T16" s="311"/>
+      <c r="T16" s="309"/>
     </row>
     <row r="17" spans="1:20" ht="13.5" customHeight="1">
       <c r="A17" s="244"/>
@@ -17233,7 +17244,7 @@
       <c r="A19" s="244"/>
       <c r="B19" s="130"/>
       <c r="C19" s="131"/>
-      <c r="D19" s="308" t="s">
+      <c r="D19" s="306" t="s">
         <v>206</v>
       </c>
       <c r="E19" s="137"/>
@@ -17262,7 +17273,7 @@
       <c r="A20" s="244"/>
       <c r="B20" s="130"/>
       <c r="C20" s="131"/>
-      <c r="D20" s="309" t="s">
+      <c r="D20" s="307" t="s">
         <v>207</v>
       </c>
       <c r="E20" s="137"/>
@@ -17285,7 +17296,7 @@
       <c r="A21" s="244"/>
       <c r="B21" s="130"/>
       <c r="C21" s="131"/>
-      <c r="D21" s="309" t="s">
+      <c r="D21" s="307" t="s">
         <v>208</v>
       </c>
       <c r="E21" s="137"/>
@@ -17308,7 +17319,7 @@
       <c r="A22" s="244"/>
       <c r="B22" s="130"/>
       <c r="C22" s="131"/>
-      <c r="D22" s="310" t="s">
+      <c r="D22" s="308" t="s">
         <v>209</v>
       </c>
       <c r="E22" s="137"/>
@@ -17449,7 +17460,7 @@
       <c r="A28" s="244"/>
       <c r="B28" s="130"/>
       <c r="C28" s="131"/>
-      <c r="D28" s="308" t="s">
+      <c r="D28" s="306" t="s">
         <v>206</v>
       </c>
       <c r="E28" s="137"/>
@@ -17474,7 +17485,7 @@
       <c r="A29" s="244"/>
       <c r="B29" s="130"/>
       <c r="C29" s="131"/>
-      <c r="D29" s="309" t="s">
+      <c r="D29" s="307" t="s">
         <v>207</v>
       </c>
       <c r="E29" s="137"/>
@@ -17499,7 +17510,7 @@
       <c r="A30" s="244"/>
       <c r="B30" s="130"/>
       <c r="C30" s="131"/>
-      <c r="D30" s="309" t="s">
+      <c r="D30" s="307" t="s">
         <v>208</v>
       </c>
       <c r="E30" s="137"/>
@@ -17522,7 +17533,7 @@
       <c r="A31" s="244"/>
       <c r="B31" s="130"/>
       <c r="C31" s="131"/>
-      <c r="D31" s="310" t="s">
+      <c r="D31" s="308" t="s">
         <v>209</v>
       </c>
       <c r="E31" s="137"/>
@@ -17626,10 +17637,10 @@
       <c r="I35" s="143"/>
       <c r="J35" s="143"/>
       <c r="K35" s="143"/>
-      <c r="L35" s="312" t="s">
-        <v>147</v>
-      </c>
-      <c r="M35" s="312" t="s">
+      <c r="L35" s="310" t="s">
+        <v>147</v>
+      </c>
+      <c r="M35" s="310" t="s">
         <v>147</v>
       </c>
       <c r="N35" s="143"/>
@@ -17847,12 +17858,12 @@
     </row>
     <row r="44" spans="1:17" ht="13.5" customHeight="1" thickBot="1">
       <c r="A44" s="246"/>
-      <c r="B44" s="313"/>
-      <c r="C44" s="314"/>
-      <c r="D44" s="315" t="s">
+      <c r="B44" s="311"/>
+      <c r="C44" s="312"/>
+      <c r="D44" s="313" t="s">
         <v>217</v>
       </c>
-      <c r="E44" s="316"/>
+      <c r="E44" s="314"/>
       <c r="F44" s="143"/>
       <c r="G44" s="143"/>
       <c r="H44" s="143"/>
@@ -17878,12 +17889,12 @@
       <c r="A45" s="245" t="s">
         <v>163</v>
       </c>
-      <c r="B45" s="471" t="s">
+      <c r="B45" s="473" t="s">
         <v>164</v>
       </c>
-      <c r="C45" s="472"/>
-      <c r="D45" s="473"/>
-      <c r="E45" s="333"/>
+      <c r="C45" s="474"/>
+      <c r="D45" s="475"/>
+      <c r="E45" s="331"/>
       <c r="F45" s="237" t="s">
         <v>108</v>
       </c>
@@ -17923,11 +17934,11 @@
     </row>
     <row r="46" spans="1:17" ht="13.5" customHeight="1">
       <c r="A46" s="247"/>
-      <c r="B46" s="474" t="s">
+      <c r="B46" s="476" t="s">
         <v>165</v>
       </c>
-      <c r="C46" s="475"/>
-      <c r="D46" s="476"/>
+      <c r="C46" s="477"/>
+      <c r="D46" s="478"/>
       <c r="E46" s="156"/>
       <c r="F46" s="155" t="s">
         <v>166</v>
@@ -17968,11 +17979,11 @@
     </row>
     <row r="47" spans="1:17" ht="13.5" customHeight="1">
       <c r="A47" s="247"/>
-      <c r="B47" s="477" t="s">
+      <c r="B47" s="479" t="s">
         <v>167</v>
       </c>
-      <c r="C47" s="478"/>
-      <c r="D47" s="479"/>
+      <c r="C47" s="480"/>
+      <c r="D47" s="481"/>
       <c r="E47" s="157"/>
       <c r="F47" s="158">
         <v>39139</v>
@@ -18013,11 +18024,11 @@
     </row>
     <row r="48" spans="1:17" ht="71.5" thickBot="1">
       <c r="A48" s="248"/>
-      <c r="B48" s="480" t="s">
+      <c r="B48" s="482" t="s">
         <v>168</v>
       </c>
-      <c r="C48" s="481"/>
-      <c r="D48" s="482"/>
+      <c r="C48" s="483"/>
+      <c r="D48" s="484"/>
       <c r="E48" s="249"/>
       <c r="F48" s="250"/>
       <c r="G48" s="250"/>
@@ -18048,11 +18059,20 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:T5"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:T6"/>
     <mergeCell ref="A7:B7"/>
@@ -18061,20 +18081,11 @@
     <mergeCell ref="O7:T7"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:E6"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="F6:K6"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T16 F37 F10:Q36 F39:Q44 G37:Q38" xr:uid="{00000000-0002-0000-0700-000000000000}">
@@ -18126,57 +18137,57 @@
       <c r="B1" s="84"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="402" t="s">
+      <c r="A2" s="387" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="403"/>
-      <c r="C2" s="404" t="s">
+      <c r="B2" s="388"/>
+      <c r="C2" s="389" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="405"/>
-      <c r="E2" s="406"/>
-      <c r="F2" s="407" t="s">
+      <c r="D2" s="390"/>
+      <c r="E2" s="391"/>
+      <c r="F2" s="392" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="408"/>
-      <c r="H2" s="408"/>
-      <c r="I2" s="408"/>
-      <c r="J2" s="408"/>
-      <c r="K2" s="408"/>
-      <c r="L2" s="371" t="s">
+      <c r="G2" s="393"/>
+      <c r="H2" s="393"/>
+      <c r="I2" s="393"/>
+      <c r="J2" s="393"/>
+      <c r="K2" s="393"/>
+      <c r="L2" s="418" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="372"/>
-      <c r="N2" s="372"/>
-      <c r="O2" s="372"/>
-      <c r="P2" s="372"/>
-      <c r="Q2" s="372"/>
-      <c r="R2" s="372"/>
-      <c r="S2" s="372"/>
-      <c r="T2" s="373"/>
+      <c r="M2" s="419"/>
+      <c r="N2" s="419"/>
+      <c r="O2" s="419"/>
+      <c r="P2" s="419"/>
+      <c r="Q2" s="419"/>
+      <c r="R2" s="419"/>
+      <c r="S2" s="419"/>
+      <c r="T2" s="420"/>
       <c r="V2" s="87"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="393" t="s">
+      <c r="A3" s="399" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="394"/>
-      <c r="C3" s="388" t="s">
+      <c r="B3" s="400"/>
+      <c r="C3" s="405" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="374"/>
-      <c r="E3" s="389"/>
-      <c r="F3" s="378" t="s">
+      <c r="D3" s="406"/>
+      <c r="E3" s="407"/>
+      <c r="F3" s="423" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="379"/>
-      <c r="H3" s="379"/>
-      <c r="I3" s="379"/>
-      <c r="J3" s="379"/>
-      <c r="K3" s="380"/>
-      <c r="L3" s="374"/>
-      <c r="M3" s="374"/>
-      <c r="N3" s="374"/>
+      <c r="G3" s="424"/>
+      <c r="H3" s="424"/>
+      <c r="I3" s="424"/>
+      <c r="J3" s="424"/>
+      <c r="K3" s="425"/>
+      <c r="L3" s="406"/>
+      <c r="M3" s="406"/>
+      <c r="N3" s="406"/>
       <c r="O3" s="188"/>
       <c r="P3" s="188"/>
       <c r="Q3" s="188"/>
@@ -18185,117 +18196,117 @@
       <c r="T3" s="189"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="393" t="s">
+      <c r="A4" s="399" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="394"/>
-      <c r="C4" s="414">
+      <c r="B4" s="400"/>
+      <c r="C4" s="401">
         <v>100</v>
       </c>
-      <c r="D4" s="415"/>
+      <c r="D4" s="402"/>
       <c r="E4" s="198"/>
-      <c r="F4" s="378" t="s">
+      <c r="F4" s="423" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="379"/>
-      <c r="H4" s="379"/>
-      <c r="I4" s="379"/>
-      <c r="J4" s="379"/>
-      <c r="K4" s="380"/>
-      <c r="L4" s="381">
+      <c r="G4" s="424"/>
+      <c r="H4" s="424"/>
+      <c r="I4" s="424"/>
+      <c r="J4" s="424"/>
+      <c r="K4" s="425"/>
+      <c r="L4" s="426">
         <f xml:space="preserve"> IF(FunctionList!E6&lt;&gt;"N/A",SUM(C4*FunctionList!E6/1000,- O7),"N/A")</f>
         <v>7</v>
       </c>
-      <c r="M4" s="382"/>
-      <c r="N4" s="382"/>
-      <c r="O4" s="382"/>
-      <c r="P4" s="382"/>
-      <c r="Q4" s="382"/>
-      <c r="R4" s="382"/>
-      <c r="S4" s="382"/>
-      <c r="T4" s="383"/>
+      <c r="M4" s="427"/>
+      <c r="N4" s="427"/>
+      <c r="O4" s="427"/>
+      <c r="P4" s="427"/>
+      <c r="Q4" s="427"/>
+      <c r="R4" s="427"/>
+      <c r="S4" s="427"/>
+      <c r="T4" s="428"/>
       <c r="V4" s="87"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="393" t="s">
+      <c r="A5" s="399" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="394"/>
-      <c r="C5" s="395" t="s">
+      <c r="B5" s="400"/>
+      <c r="C5" s="411" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="395"/>
-      <c r="E5" s="395"/>
-      <c r="F5" s="396"/>
-      <c r="G5" s="396"/>
-      <c r="H5" s="396"/>
-      <c r="I5" s="396"/>
-      <c r="J5" s="396"/>
-      <c r="K5" s="396"/>
-      <c r="L5" s="395"/>
-      <c r="M5" s="395"/>
-      <c r="N5" s="395"/>
-      <c r="O5" s="395"/>
-      <c r="P5" s="395"/>
-      <c r="Q5" s="395"/>
-      <c r="R5" s="395"/>
-      <c r="S5" s="395"/>
-      <c r="T5" s="395"/>
+      <c r="D5" s="411"/>
+      <c r="E5" s="411"/>
+      <c r="F5" s="412"/>
+      <c r="G5" s="412"/>
+      <c r="H5" s="412"/>
+      <c r="I5" s="412"/>
+      <c r="J5" s="412"/>
+      <c r="K5" s="412"/>
+      <c r="L5" s="411"/>
+      <c r="M5" s="411"/>
+      <c r="N5" s="411"/>
+      <c r="O5" s="411"/>
+      <c r="P5" s="411"/>
+      <c r="Q5" s="411"/>
+      <c r="R5" s="411"/>
+      <c r="S5" s="411"/>
+      <c r="T5" s="411"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A6" s="391" t="s">
+      <c r="A6" s="409" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="392"/>
-      <c r="C6" s="375" t="s">
+      <c r="B6" s="410"/>
+      <c r="C6" s="421" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="376"/>
-      <c r="E6" s="377"/>
-      <c r="F6" s="375" t="s">
+      <c r="D6" s="413"/>
+      <c r="E6" s="422"/>
+      <c r="F6" s="421" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="376"/>
-      <c r="H6" s="376"/>
-      <c r="I6" s="376"/>
-      <c r="J6" s="376"/>
-      <c r="K6" s="384"/>
-      <c r="L6" s="376" t="s">
+      <c r="G6" s="413"/>
+      <c r="H6" s="413"/>
+      <c r="I6" s="413"/>
+      <c r="J6" s="413"/>
+      <c r="K6" s="429"/>
+      <c r="L6" s="413" t="s">
         <v>127</v>
       </c>
-      <c r="M6" s="376"/>
-      <c r="N6" s="376"/>
-      <c r="O6" s="400" t="s">
+      <c r="M6" s="413"/>
+      <c r="N6" s="413"/>
+      <c r="O6" s="416" t="s">
         <v>111</v>
       </c>
-      <c r="P6" s="376"/>
-      <c r="Q6" s="376"/>
-      <c r="R6" s="376"/>
-      <c r="S6" s="376"/>
-      <c r="T6" s="401"/>
+      <c r="P6" s="413"/>
+      <c r="Q6" s="413"/>
+      <c r="R6" s="413"/>
+      <c r="S6" s="413"/>
+      <c r="T6" s="417"/>
       <c r="V6" s="87"/>
     </row>
     <row r="7" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="413">
+      <c r="A7" s="398">
         <f>COUNTIF(F25:HE25,"P")</f>
         <v>3</v>
       </c>
-      <c r="B7" s="412"/>
-      <c r="C7" s="410">
+      <c r="B7" s="397"/>
+      <c r="C7" s="394">
         <f>COUNTIF(F25:HE25,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="398"/>
-      <c r="E7" s="412"/>
-      <c r="F7" s="410">
+      <c r="D7" s="395"/>
+      <c r="E7" s="397"/>
+      <c r="F7" s="394">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="398"/>
-      <c r="H7" s="398"/>
-      <c r="I7" s="398"/>
-      <c r="J7" s="398"/>
-      <c r="K7" s="411"/>
+      <c r="G7" s="395"/>
+      <c r="H7" s="395"/>
+      <c r="I7" s="395"/>
+      <c r="J7" s="395"/>
+      <c r="K7" s="396"/>
       <c r="L7" s="190">
         <f>COUNTIF(E24:HE24,"N")</f>
         <v>1</v>
@@ -18308,15 +18319,15 @@
         <f>COUNTIF(E24:HE24,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="397">
+      <c r="O7" s="414">
         <f>COUNTA(E9:HH9)</f>
         <v>3</v>
       </c>
-      <c r="P7" s="398"/>
-      <c r="Q7" s="398"/>
-      <c r="R7" s="398"/>
-      <c r="S7" s="398"/>
-      <c r="T7" s="399"/>
+      <c r="P7" s="395"/>
+      <c r="Q7" s="395"/>
+      <c r="R7" s="395"/>
+      <c r="S7" s="395"/>
+      <c r="T7" s="415"/>
       <c r="U7" s="88"/>
     </row>
     <row r="8" spans="1:22" ht="10.5" thickBot="1"/>
@@ -18383,7 +18394,7 @@
       <c r="B13" s="93"/>
       <c r="C13" s="94"/>
       <c r="D13" s="95" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E13" s="99"/>
       <c r="F13" s="183" t="s">
@@ -18410,7 +18421,7 @@
       <c r="B15" s="93"/>
       <c r="C15" s="94"/>
       <c r="D15" s="95" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E15" s="100"/>
       <c r="F15" s="183"/>
@@ -18502,7 +18513,7 @@
       <c r="B22" s="112"/>
       <c r="C22" s="186"/>
       <c r="D22" s="114" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E22" s="117"/>
       <c r="F22" s="183" t="s">
@@ -18525,12 +18536,12 @@
       <c r="A24" s="210" t="s">
         <v>163</v>
       </c>
-      <c r="B24" s="387" t="s">
+      <c r="B24" s="445" t="s">
         <v>164</v>
       </c>
-      <c r="C24" s="387"/>
-      <c r="D24" s="387"/>
-      <c r="E24" s="332"/>
+      <c r="C24" s="445"/>
+      <c r="D24" s="445"/>
+      <c r="E24" s="330"/>
       <c r="F24" s="204" t="s">
         <v>109</v>
       </c>
@@ -18543,11 +18554,11 @@
     </row>
     <row r="25" spans="1:8" ht="13.5" customHeight="1">
       <c r="A25" s="209"/>
-      <c r="B25" s="409" t="s">
+      <c r="B25" s="404" t="s">
         <v>165</v>
       </c>
-      <c r="C25" s="409"/>
-      <c r="D25" s="409"/>
+      <c r="C25" s="404"/>
+      <c r="D25" s="404"/>
       <c r="E25" s="119"/>
       <c r="F25" s="187" t="s">
         <v>166</v>
@@ -18598,22 +18609,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="O7:T7"/>
     <mergeCell ref="L4:T4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:T5"/>
@@ -18625,6 +18620,22 @@
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="F4:K4"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F24:H24" xr:uid="{00000000-0002-0000-0800-000000000000}">
@@ -18643,15 +18654,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x01010032DC91C176D2B445B0F33E15334C3699" ma:contentTypeVersion="7" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="c8c5e4b5f672a198bd4048a2c75b131f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a2cedf25-d6a7-4faf-bc9c-b5626261f1ec" xmlns:ns4="27bcd1cc-83ba-42d1-a9e4-fbe153d17192" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5b65744f42d4f10153563d62012c972" ns3:_="" ns4:_="">
     <xsd:import namespace="a2cedf25-d6a7-4faf-bc9c-b5626261f1ec"/>
@@ -18836,15 +18838,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A15D77C8-6DF7-493F-9470-D4078B828405}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBCC1670-4147-4D2B-AC63-A37460D6BB49}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18861,4 +18864,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A15D77C8-6DF7-493F-9470-D4078B828405}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>